--- a/局外维修损耗计算器/中级维修/S5护甲数据.xlsx
+++ b/局外维修损耗计算器/中级维修/S5护甲数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\迅雷下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\局内维修损耗计算模拟\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28ACB0C9-2A86-48C0-A47F-3F92E25DC639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78998EE9-74D1-48D5-8E65-3E421EA3C04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{DA9659AD-064F-414B-8551-2A3419EEC3A3}"/>
   </bookViews>
@@ -336,9 +336,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -470,21 +471,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,25 +480,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -521,25 +489,10 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -550,6 +503,54 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,41 +889,43 @@
   <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="P35:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="28" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="18" width="20.6640625" style="21" customWidth="1"/>
+    <col min="19" max="28" width="20.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -964,28 +967,28 @@
       <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="24" t="s">
         <v>74</v>
       </c>
       <c r="W2" s="2"/>
@@ -996,16 +999,16 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1026,28 +1029,28 @@
       <c r="J3" s="2">
         <v>55</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="20">
         <v>3</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="22">
         <v>6</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="23">
         <v>8</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="24">
         <v>9</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="2"/>
@@ -1062,16 +1065,16 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1086,22 +1089,22 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="8">
+      <c r="K4" s="20">
         <v>3</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="7">
+      <c r="L4" s="29"/>
+      <c r="M4" s="22">
         <v>6</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="6">
+      <c r="N4" s="29"/>
+      <c r="O4" s="23">
         <v>8</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="5">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="24">
         <v>9</v>
       </c>
-      <c r="R4" s="22"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1114,16 +1117,16 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1138,22 +1141,22 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="8">
+      <c r="K5" s="20">
         <v>3</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="7">
+      <c r="L5" s="29"/>
+      <c r="M5" s="22">
         <v>6</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="6">
+      <c r="N5" s="29"/>
+      <c r="O5" s="23">
         <v>8</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="5">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="24">
         <v>9</v>
       </c>
-      <c r="R5" s="22"/>
+      <c r="R5" s="29"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1166,16 +1169,16 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1190,22 +1193,22 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="8">
+      <c r="K6" s="20">
         <v>3</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="7">
+      <c r="L6" s="29"/>
+      <c r="M6" s="22">
         <v>6</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="6">
+      <c r="N6" s="29"/>
+      <c r="O6" s="23">
         <v>8</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="5">
+      <c r="P6" s="29"/>
+      <c r="Q6" s="24">
         <v>9</v>
       </c>
-      <c r="R6" s="22"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1218,24 +1221,24 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1248,16 +1251,16 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1276,28 +1279,28 @@
         <v>0.15</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="8">
+      <c r="K8" s="20">
         <v>2</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="22">
         <v>4</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="23">
         <v>6</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="24">
         <v>7</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S8" s="2"/>
@@ -1312,16 +1315,16 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1342,22 +1345,22 @@
       <c r="J9" s="2">
         <v>84</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="20">
         <v>2</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="7">
+      <c r="L9" s="29"/>
+      <c r="M9" s="22">
         <v>4</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="6">
+      <c r="N9" s="29"/>
+      <c r="O9" s="23">
         <v>6</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="5">
+      <c r="P9" s="29"/>
+      <c r="Q9" s="24">
         <v>7</v>
       </c>
-      <c r="R9" s="22"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1370,16 +1373,16 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1398,22 +1401,22 @@
         <v>0.06</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="8">
+      <c r="K10" s="20">
         <v>2</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="7">
+      <c r="L10" s="29"/>
+      <c r="M10" s="22">
         <v>4</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="6">
+      <c r="N10" s="29"/>
+      <c r="O10" s="23">
         <v>6</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="5">
+      <c r="P10" s="29"/>
+      <c r="Q10" s="24">
         <v>7</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="29"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1426,16 +1429,16 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1454,22 +1457,22 @@
         <v>0.12</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="8">
+      <c r="K11" s="20">
         <v>2</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="7">
+      <c r="L11" s="29"/>
+      <c r="M11" s="22">
         <v>4</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="6">
+      <c r="N11" s="29"/>
+      <c r="O11" s="23">
         <v>6</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="5">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="24">
         <v>7</v>
       </c>
-      <c r="R11" s="22"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1482,24 +1485,24 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="22"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1512,16 +1515,16 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="9">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>-0.01</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1542,28 +1545,28 @@
       <c r="J13" s="2">
         <v>145</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="20">
         <v>1.55</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="22">
         <v>2.5</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="23">
         <v>3.91</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="24">
         <v>5.86</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S13" s="2"/>
@@ -1578,19 +1581,19 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="9">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>-0.03</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>-0.01</v>
       </c>
       <c r="F14" s="3">
@@ -1608,22 +1611,22 @@
       <c r="J14" s="2">
         <v>112</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="20">
         <v>1.95</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="7">
+      <c r="L14" s="30"/>
+      <c r="M14" s="22">
         <v>2.6</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="6">
+      <c r="N14" s="30"/>
+      <c r="O14" s="23">
         <v>4.0599999999999996</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5">
+      <c r="P14" s="30"/>
+      <c r="Q14" s="24">
         <v>6.09</v>
       </c>
-      <c r="R14" s="4"/>
+      <c r="R14" s="30"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1636,19 +1639,19 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>-0.02</v>
       </c>
       <c r="F15" s="3">
@@ -1666,22 +1669,22 @@
       <c r="J15" s="2">
         <v>138</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="20">
         <v>1.58</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="7">
+      <c r="L15" s="29"/>
+      <c r="M15" s="22">
         <v>2.11</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="6">
+      <c r="N15" s="29"/>
+      <c r="O15" s="23">
         <v>3.29</v>
       </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="5">
+      <c r="P15" s="29"/>
+      <c r="Q15" s="24">
         <v>4.9400000000000004</v>
       </c>
-      <c r="R15" s="22"/>
+      <c r="R15" s="29"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1694,19 +1697,19 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="9">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="4">
         <v>-0.01</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>-0.01</v>
       </c>
       <c r="F16" s="3">
@@ -1724,22 +1727,22 @@
       <c r="J16" s="2">
         <v>140</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="20">
         <v>1.56</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="7">
+      <c r="L16" s="29"/>
+      <c r="M16" s="22">
         <v>2.08</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="6">
+      <c r="N16" s="29"/>
+      <c r="O16" s="23">
         <v>3.25</v>
       </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="5">
+      <c r="P16" s="29"/>
+      <c r="Q16" s="24">
         <v>4.88</v>
       </c>
-      <c r="R16" s="22"/>
+      <c r="R16" s="29"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1752,24 +1755,24 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="18" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="22"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1782,19 +1785,19 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="18" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="8">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <v>-0.05</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>-0.05</v>
       </c>
       <c r="F18" s="3">
@@ -1812,28 +1815,28 @@
       <c r="J18" s="2">
         <v>168</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="20">
         <v>0.5</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="22">
         <v>1.86</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="23">
         <v>2.92</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="24">
         <v>4.38</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S18" s="2"/>
@@ -1848,19 +1851,19 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="18" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="8">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="4">
         <v>-0.03</v>
       </c>
       <c r="F19" s="3">
@@ -1878,22 +1881,22 @@
       <c r="J19" s="2">
         <v>221</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="20">
         <v>0.5</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="7">
+      <c r="L19" s="30"/>
+      <c r="M19" s="22">
         <v>1.26</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="6">
+      <c r="N19" s="30"/>
+      <c r="O19" s="23">
         <v>1.97</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5">
+      <c r="P19" s="30"/>
+      <c r="Q19" s="24">
         <v>2.95</v>
       </c>
-      <c r="R19" s="4"/>
+      <c r="R19" s="30"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1906,19 +1909,19 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="18" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="8">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="4">
         <v>-0.05</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>-0.05</v>
       </c>
       <c r="F20" s="3">
@@ -1936,22 +1939,22 @@
       <c r="J20" s="2">
         <v>233</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="20">
         <v>0.41</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="7">
+      <c r="L20" s="29"/>
+      <c r="M20" s="22">
         <v>1.41</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="6">
+      <c r="N20" s="29"/>
+      <c r="O20" s="23">
         <v>2.21</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="5">
+      <c r="P20" s="29"/>
+      <c r="Q20" s="24">
         <v>3.31</v>
       </c>
-      <c r="R20" s="22"/>
+      <c r="R20" s="29"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1964,19 +1967,19 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="18" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="8">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="4">
         <v>-0.02</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="4">
         <v>-0.01</v>
       </c>
       <c r="F21" s="3">
@@ -1994,22 +1997,22 @@
       <c r="J21" s="2">
         <v>248</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="20">
         <v>0.24</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="7">
-        <v>1.1903225806451601</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="6">
+      <c r="L21" s="29"/>
+      <c r="M21" s="22">
+        <v>1.19</v>
+      </c>
+      <c r="N21" s="29"/>
+      <c r="O21" s="23">
         <v>1.87</v>
       </c>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="5">
+      <c r="P21" s="29"/>
+      <c r="Q21" s="24">
         <v>2.8</v>
       </c>
-      <c r="R21" s="22"/>
+      <c r="R21" s="29"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -2022,10 +2025,10 @@
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="18" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="8">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2052,22 +2055,22 @@
       <c r="J22" s="2">
         <v>262</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="20">
         <v>0.2</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="7">
+      <c r="L22" s="29"/>
+      <c r="M22" s="22">
         <v>1.35</v>
       </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="6">
+      <c r="N22" s="29"/>
+      <c r="O22" s="23">
         <v>2.11</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="5">
+      <c r="P22" s="29"/>
+      <c r="Q22" s="24">
         <v>3.16</v>
       </c>
-      <c r="R22" s="22"/>
+      <c r="R22" s="29"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2080,24 +2083,24 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="18" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2110,10 +2113,10 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="18" customHeight="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="7">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2122,7 +2125,7 @@
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <v>-0.01</v>
       </c>
       <c r="F24" s="3">
@@ -2140,28 +2143,28 @@
       <c r="J24" s="2">
         <v>394</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="20">
         <v>0.19</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="22">
         <v>0.32</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="23">
         <v>1.19</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="24">
         <v>1.78</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R24" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S24" s="2"/>
@@ -2176,19 +2179,19 @@
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28" ht="18" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="7">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <v>-0.05</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="4">
         <v>-0.03</v>
       </c>
       <c r="F25" s="3">
@@ -2206,22 +2209,22 @@
       <c r="J25" s="2">
         <v>587</v>
       </c>
-      <c r="K25" s="8">
-        <v>0.183673469387755</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="7">
-        <v>0.29066666666666702</v>
-      </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="6">
+      <c r="K25" s="20">
+        <v>0.18</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="O25" s="23">
         <v>0.81</v>
       </c>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="5">
+      <c r="P25" s="29"/>
+      <c r="Q25" s="24">
         <v>1.21</v>
       </c>
-      <c r="R25" s="22"/>
+      <c r="R25" s="29"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2234,19 +2237,19 @@
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="1:28" ht="18" customHeight="1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="7">
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="4">
         <v>-0.1</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="4">
         <v>-0.05</v>
       </c>
       <c r="F26" s="3">
@@ -2264,22 +2267,22 @@
       <c r="J26" s="2">
         <v>374</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="20">
         <v>0.15</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="7">
-        <v>0.25066666666666698</v>
-      </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="6">
+      <c r="L26" s="29"/>
+      <c r="M26" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="23">
         <v>1.25</v>
       </c>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="5">
+      <c r="P26" s="29"/>
+      <c r="Q26" s="24">
         <v>1.88</v>
       </c>
-      <c r="R26" s="22"/>
+      <c r="R26" s="29"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2292,19 +2295,19 @@
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="1:28" ht="18" customHeight="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="7">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="4">
         <v>-0.08</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="4">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="F27" s="3">
@@ -2322,22 +2325,22 @@
       <c r="J27" s="2">
         <v>325</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="20">
         <v>0.16</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="7">
-        <v>0.270666666666667</v>
-      </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="6">
+      <c r="L27" s="29"/>
+      <c r="M27" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="23">
         <v>1.44</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="5">
+      <c r="P27" s="29"/>
+      <c r="Q27" s="24">
         <v>2.16</v>
       </c>
-      <c r="R27" s="22"/>
+      <c r="R27" s="29"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -2350,24 +2353,24 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="18" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -2380,19 +2383,19 @@
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="1:28" ht="18" customHeight="1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="5">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="4">
         <v>-0.08</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="4">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="F29" s="3">
@@ -2410,28 +2413,28 @@
       <c r="J29" s="2">
         <v>757</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="20">
         <v>0.1</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="7">
-        <v>0.17066666666666699</v>
-      </c>
-      <c r="N29" s="14" t="s">
+      <c r="M29" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="N29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="23">
         <v>0.27</v>
       </c>
-      <c r="P29" s="13" t="s">
+      <c r="P29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="24">
         <v>0.81</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="R29" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S29" s="2"/>
@@ -2446,19 +2449,19 @@
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" ht="18" customHeight="1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="5">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="4">
         <v>-0.06</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="4">
         <v>-0.05</v>
       </c>
       <c r="F30" s="3">
@@ -2476,22 +2479,22 @@
       <c r="J30" s="2">
         <v>1038</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="20">
         <v>0.1</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="7">
-        <v>0.17066666666666699</v>
-      </c>
-      <c r="N30" s="22"/>
-      <c r="O30" s="6">
+      <c r="L30" s="29"/>
+      <c r="M30" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="N30" s="29"/>
+      <c r="O30" s="23">
         <v>0.27</v>
       </c>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="5">
-        <v>0.59045226130653305</v>
-      </c>
-      <c r="R30" s="22"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="R30" s="29"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -2504,19 +2507,19 @@
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="1:28" ht="18" customHeight="1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="5">
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="4">
         <v>-0.12</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="4">
         <v>-0.08</v>
       </c>
       <c r="F31" s="3">
@@ -2534,22 +2537,22 @@
       <c r="J31" s="2">
         <v>677</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="20">
         <v>0.1</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="7">
-        <v>0.17066666666666699</v>
-      </c>
-      <c r="N31" s="22"/>
-      <c r="O31" s="6">
+      <c r="L31" s="29"/>
+      <c r="M31" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="N31" s="29"/>
+      <c r="O31" s="23">
         <v>0.26</v>
       </c>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="5">
-        <v>0.90397350993377501</v>
-      </c>
-      <c r="R31" s="22"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="R31" s="29"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -2562,19 +2565,19 @@
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="1:28" ht="18" customHeight="1">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="5">
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="4">
         <v>-0.01</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="4">
         <v>-0.03</v>
       </c>
       <c r="F32" s="3">
@@ -2592,22 +2595,22 @@
       <c r="J32" s="2">
         <v>1039</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="20">
         <v>0.12</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="7">
-        <v>0.19066666666666701</v>
-      </c>
-      <c r="N32" s="22"/>
-      <c r="O32" s="6">
-        <v>0.30252100840336099</v>
-      </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="5">
-        <v>0.59161849710982695</v>
-      </c>
-      <c r="R32" s="22"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="N32" s="29"/>
+      <c r="O32" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="R32" s="29"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -2620,24 +2623,24 @@
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" ht="18" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -2650,24 +2653,24 @@
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="1:28" ht="18" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
       <c r="S34" s="2" t="s">
         <v>45</v>
       </c>
@@ -2686,16 +2689,16 @@
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="1:28" ht="18" customHeight="1">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="11">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2716,28 +2719,28 @@
       <c r="J35" s="2">
         <v>203</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="20">
         <v>4</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="22">
         <v>4</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="23">
         <v>6</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="24">
         <v>8</v>
       </c>
-      <c r="R35" s="12" t="s">
+      <c r="R35" s="28" t="s">
         <v>6</v>
       </c>
       <c r="S35" s="2" t="s">
@@ -2756,16 +2759,16 @@
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="18" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="11">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2780,22 +2783,22 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="8">
+      <c r="K36" s="20">
         <v>4</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="7">
+      <c r="L36" s="29"/>
+      <c r="M36" s="22">
         <v>4</v>
       </c>
-      <c r="N36" s="22"/>
-      <c r="O36" s="6">
+      <c r="N36" s="29"/>
+      <c r="O36" s="23">
         <v>6</v>
       </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="5">
+      <c r="P36" s="29"/>
+      <c r="Q36" s="24">
         <v>8</v>
       </c>
-      <c r="R36" s="22"/>
+      <c r="R36" s="29"/>
       <c r="S36" s="2" t="s">
         <v>13</v>
       </c>
@@ -2812,16 +2815,16 @@
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="1:28" ht="18" customHeight="1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="11">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2836,23 +2839,23 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="8">
+      <c r="K37" s="20">
         <v>4</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="7">
+      <c r="L37" s="30"/>
+      <c r="M37" s="22">
         <v>4</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="6">
+      <c r="N37" s="30"/>
+      <c r="O37" s="23">
         <v>6</v>
       </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="5">
+      <c r="P37" s="30"/>
+      <c r="Q37" s="24">
         <v>8</v>
       </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="9">
+      <c r="R37" s="30"/>
+      <c r="S37" s="4">
         <v>0.1</v>
       </c>
       <c r="T37" s="2" t="s">
@@ -2868,16 +2871,16 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" ht="18" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="11">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -2892,22 +2895,22 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="8">
+      <c r="K38" s="20">
         <v>4</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="7">
+      <c r="L38" s="30"/>
+      <c r="M38" s="22">
         <v>4</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="6">
+      <c r="N38" s="30"/>
+      <c r="O38" s="23">
         <v>6</v>
       </c>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="5">
+      <c r="P38" s="30"/>
+      <c r="Q38" s="24">
         <v>8</v>
       </c>
-      <c r="R38" s="4"/>
+      <c r="R38" s="30"/>
       <c r="S38" s="2" t="s">
         <v>13</v>
       </c>
@@ -2924,24 +2927,24 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" ht="18" customHeight="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="22"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -2954,16 +2957,16 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="1:28" ht="18" customHeight="1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -2978,31 +2981,31 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="8">
+      <c r="K40" s="20">
         <v>2</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L40" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="22">
         <v>2</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="23">
         <v>3</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P40" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="24">
         <v>4</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="R40" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="4">
         <v>-0.05</v>
       </c>
       <c r="T40" s="2" t="s">
@@ -3018,16 +3021,16 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="1:28" ht="18" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -3042,22 +3045,22 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="8">
+      <c r="K41" s="20">
         <v>2</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="7">
+      <c r="L41" s="30"/>
+      <c r="M41" s="22">
         <v>2</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="6">
+      <c r="N41" s="30"/>
+      <c r="O41" s="23">
         <v>3</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="5">
+      <c r="P41" s="30"/>
+      <c r="Q41" s="24">
         <v>4</v>
       </c>
-      <c r="R41" s="4"/>
+      <c r="R41" s="30"/>
       <c r="S41" s="2" t="s">
         <v>13</v>
       </c>
@@ -3074,16 +3077,16 @@
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="1:28" ht="18" customHeight="1">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="10">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3100,22 +3103,22 @@
       <c r="J42" s="2">
         <v>143</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="20">
         <v>2</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="7">
+      <c r="L42" s="29"/>
+      <c r="M42" s="22">
         <v>2</v>
       </c>
-      <c r="N42" s="22"/>
-      <c r="O42" s="6">
+      <c r="N42" s="29"/>
+      <c r="O42" s="23">
         <v>3</v>
       </c>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="5">
+      <c r="P42" s="29"/>
+      <c r="Q42" s="24">
         <v>4</v>
       </c>
-      <c r="R42" s="22"/>
+      <c r="R42" s="29"/>
       <c r="S42" s="2" t="s">
         <v>13</v>
       </c>
@@ -3132,16 +3135,16 @@
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="1:28" ht="18" customHeight="1">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="10">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -3156,22 +3159,22 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="8">
+      <c r="K43" s="20">
         <v>2</v>
       </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="7">
+      <c r="L43" s="29"/>
+      <c r="M43" s="22">
         <v>2</v>
       </c>
-      <c r="N43" s="22"/>
-      <c r="O43" s="6">
+      <c r="N43" s="29"/>
+      <c r="O43" s="23">
         <v>3</v>
       </c>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="5">
+      <c r="P43" s="29"/>
+      <c r="Q43" s="24">
         <v>4</v>
       </c>
-      <c r="R43" s="22"/>
+      <c r="R43" s="29"/>
       <c r="S43" s="2" t="s">
         <v>13</v>
       </c>
@@ -3188,25 +3191,25 @@
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="1:28" ht="18" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="9"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="4"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -3218,19 +3221,19 @@
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="1:28" ht="18" customHeight="1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="9">
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="4">
         <v>-0.03</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="4">
         <v>-0.01</v>
       </c>
       <c r="F45" s="3">
@@ -3248,31 +3251,31 @@
       <c r="J45" s="2">
         <v>200</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="20">
         <v>1.59</v>
       </c>
-      <c r="L45" s="18" t="s">
+      <c r="L45" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="22">
         <v>2.38</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N45" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="23">
         <v>3.97</v>
       </c>
-      <c r="P45" s="13" t="s">
+      <c r="P45" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="24">
         <v>7.44</v>
       </c>
-      <c r="R45" s="12" t="s">
+      <c r="R45" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S45" s="9">
+      <c r="S45" s="4">
         <v>-0.05</v>
       </c>
       <c r="T45" s="2" t="s">
@@ -3288,10 +3291,10 @@
       <c r="AB45" s="2"/>
     </row>
     <row r="46" spans="1:28" ht="18" customHeight="1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="9">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3318,22 +3321,22 @@
       <c r="J46" s="2">
         <v>220</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="20">
         <v>1.44</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="7">
+      <c r="L46" s="30"/>
+      <c r="M46" s="22">
         <v>2.16</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="6">
+      <c r="N46" s="30"/>
+      <c r="O46" s="23">
         <v>3.6</v>
       </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="5">
+      <c r="P46" s="30"/>
+      <c r="Q46" s="24">
         <v>6.75</v>
       </c>
-      <c r="R46" s="4"/>
+      <c r="R46" s="30"/>
       <c r="S46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3352,19 +3355,19 @@
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="1:28" ht="18" customHeight="1">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="9">
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="4">
         <v>-0.01</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="4">
         <v>-0.01</v>
       </c>
       <c r="F47" s="3">
@@ -3380,23 +3383,23 @@
         <v>0.13</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="8">
+      <c r="K47" s="20">
         <v>1.28</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="7">
+      <c r="L47" s="30"/>
+      <c r="M47" s="22">
         <v>1.92</v>
       </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="6">
+      <c r="N47" s="30"/>
+      <c r="O47" s="23">
         <v>3.2</v>
       </c>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="5">
+      <c r="P47" s="30"/>
+      <c r="Q47" s="24">
         <v>6</v>
       </c>
-      <c r="R47" s="4"/>
-      <c r="S47" s="9">
+      <c r="R47" s="30"/>
+      <c r="S47" s="4">
         <v>0.2</v>
       </c>
       <c r="T47" s="2" t="s">
@@ -3414,10 +3417,10 @@
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="1:28" ht="18" customHeight="1">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="9">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3444,22 +3447,22 @@
       <c r="J48" s="2">
         <v>276</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="7">
+      <c r="L48" s="30"/>
+      <c r="M48" s="22">
         <v>1.73</v>
       </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="6">
+      <c r="N48" s="30"/>
+      <c r="O48" s="23">
         <v>2.88</v>
       </c>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="5">
+      <c r="P48" s="30"/>
+      <c r="Q48" s="24">
         <v>5.39</v>
       </c>
-      <c r="R48" s="4"/>
+      <c r="R48" s="30"/>
       <c r="S48" s="2" t="s">
         <v>13</v>
       </c>
@@ -3476,24 +3479,24 @@
       <c r="AB48" s="2"/>
     </row>
     <row r="49" spans="1:28" ht="18" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -3506,19 +3509,19 @@
       <c r="AB49" s="2"/>
     </row>
     <row r="50" spans="1:28" ht="18" customHeight="1">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="8">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="4">
         <v>-0.06</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="4">
         <v>-0.04</v>
       </c>
       <c r="F50" s="3">
@@ -3536,31 +3539,31 @@
       <c r="J50" s="2">
         <v>238</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="20">
         <v>0.21</v>
       </c>
-      <c r="L50" s="18" t="s">
+      <c r="L50" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="22">
         <v>1.47</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="N50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="23">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P50" s="13" t="s">
+      <c r="P50" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q50" s="5">
+      <c r="Q50" s="24">
         <v>4.59</v>
       </c>
-      <c r="R50" s="12" t="s">
+      <c r="R50" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="4">
         <v>-0.1</v>
       </c>
       <c r="T50" s="2" t="s">
@@ -3578,10 +3581,10 @@
       <c r="AB50" s="2"/>
     </row>
     <row r="51" spans="1:28" ht="18" customHeight="1">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="8">
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3590,7 +3593,7 @@
       <c r="D51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="4">
         <v>-0.02</v>
       </c>
       <c r="F51" s="3">
@@ -3608,23 +3611,23 @@
       <c r="J51" s="2">
         <v>587</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="20">
         <v>0.11</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="7">
+      <c r="L51" s="30"/>
+      <c r="M51" s="22">
         <v>0.6</v>
       </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="6">
+      <c r="N51" s="30"/>
+      <c r="O51" s="23">
         <v>1</v>
       </c>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="5">
+      <c r="P51" s="30"/>
+      <c r="Q51" s="24">
         <v>1.88</v>
       </c>
-      <c r="R51" s="4"/>
-      <c r="S51" s="9">
+      <c r="R51" s="30"/>
+      <c r="S51" s="4">
         <v>0.5</v>
       </c>
       <c r="T51" s="2" t="s">
@@ -3642,19 +3645,19 @@
       <c r="AB51" s="2"/>
     </row>
     <row r="52" spans="1:28" ht="18" customHeight="1">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="8">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="4">
         <v>-0.04</v>
       </c>
       <c r="F52" s="3">
@@ -3672,23 +3675,23 @@
       <c r="J52" s="2">
         <v>404</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="20">
         <v>0.12</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="7">
-        <v>0.88163265306122496</v>
-      </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="6">
+      <c r="L52" s="30"/>
+      <c r="M52" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="N52" s="30"/>
+      <c r="O52" s="23">
         <v>1.47</v>
       </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="5">
+      <c r="P52" s="30"/>
+      <c r="Q52" s="24">
         <v>2.76</v>
       </c>
-      <c r="R52" s="4"/>
-      <c r="S52" s="9">
+      <c r="R52" s="30"/>
+      <c r="S52" s="4">
         <v>0.1</v>
       </c>
       <c r="T52" s="2" t="s">
@@ -3704,19 +3707,19 @@
       <c r="AB52" s="2"/>
     </row>
     <row r="53" spans="1:28" ht="18" customHeight="1">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="8">
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="4">
         <v>-0.03</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="4">
         <v>-0.01</v>
       </c>
       <c r="F53" s="3">
@@ -3734,23 +3737,23 @@
       <c r="J53" s="2">
         <v>448</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="20">
         <v>0.12</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="7">
+      <c r="L53" s="30"/>
+      <c r="M53" s="22">
         <v>0.78</v>
       </c>
-      <c r="N53" s="4"/>
-      <c r="O53" s="6">
+      <c r="N53" s="30"/>
+      <c r="O53" s="23">
         <v>1.3</v>
       </c>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="5">
+      <c r="P53" s="30"/>
+      <c r="Q53" s="24">
         <v>2.44</v>
       </c>
-      <c r="R53" s="4"/>
-      <c r="S53" s="9">
+      <c r="R53" s="30"/>
+      <c r="S53" s="4">
         <v>0.2</v>
       </c>
       <c r="T53" s="2" t="s">
@@ -3766,26 +3769,26 @@
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="1:28" ht="18" customHeight="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -3798,19 +3801,19 @@
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="1:28" ht="18" customHeight="1">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="7">
         <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="4">
         <v>-0.06</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="4">
         <v>-0.05</v>
       </c>
       <c r="F55" s="3">
@@ -3828,31 +3831,31 @@
       <c r="J55" s="2">
         <v>366</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="20">
         <v>0.11</v>
       </c>
-      <c r="L55" s="18" t="s">
+      <c r="L55" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="22">
         <v>0.17</v>
       </c>
-      <c r="N55" s="14" t="s">
+      <c r="N55" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="23">
         <v>1.4</v>
       </c>
-      <c r="P55" s="13" t="s">
+      <c r="P55" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q55" s="5">
+      <c r="Q55" s="24">
         <v>2.63</v>
       </c>
-      <c r="R55" s="12" t="s">
+      <c r="R55" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S55" s="9">
+      <c r="S55" s="4">
         <v>-0.15</v>
       </c>
       <c r="T55" s="2" t="s">
@@ -3870,19 +3873,19 @@
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="1:28" ht="18" customHeight="1">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="7">
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="4">
         <v>-0.01</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="4">
         <v>-0.01</v>
       </c>
       <c r="F56" s="3">
@@ -3900,23 +3903,23 @@
       <c r="J56" s="2">
         <v>1144</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="20">
         <v>0.05</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="7">
+      <c r="L56" s="30"/>
+      <c r="M56" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="6">
-        <v>0.45405405405405402</v>
-      </c>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="5">
+      <c r="N56" s="30"/>
+      <c r="O56" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="24">
         <v>0.85</v>
       </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="9">
+      <c r="R56" s="30"/>
+      <c r="S56" s="4">
         <v>0.4</v>
       </c>
       <c r="T56" s="2" t="s">
@@ -3934,19 +3937,19 @@
       <c r="AB56" s="2"/>
     </row>
     <row r="57" spans="1:28" ht="18" customHeight="1">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="7">
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="4">
         <v>-0.03</v>
       </c>
       <c r="F57" s="3">
@@ -3964,23 +3967,23 @@
       <c r="J57" s="2">
         <v>826</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="20">
         <v>0.05</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="7">
+      <c r="L57" s="30"/>
+      <c r="M57" s="22">
         <v>0.08</v>
       </c>
-      <c r="N57" s="4"/>
-      <c r="O57" s="6">
+      <c r="N57" s="30"/>
+      <c r="O57" s="23">
         <v>0.63</v>
       </c>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="5">
+      <c r="P57" s="30"/>
+      <c r="Q57" s="24">
         <v>1.18</v>
       </c>
-      <c r="R57" s="4"/>
-      <c r="S57" s="9">
+      <c r="R57" s="30"/>
+      <c r="S57" s="4">
         <v>0.1</v>
       </c>
       <c r="T57" s="2" t="s">
@@ -3996,19 +3999,19 @@
       <c r="AB57" s="2"/>
     </row>
     <row r="58" spans="1:28" ht="18" customHeight="1">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="7">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="4">
         <v>-0.03</v>
       </c>
       <c r="F58" s="3">
@@ -4026,15 +4029,15 @@
       <c r="J58" s="2">
         <v>826</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="9">
+      <c r="K58" s="20"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="4">
         <v>0.1</v>
       </c>
       <c r="T58" s="2" t="s">
@@ -4050,19 +4053,19 @@
       <c r="AB58" s="2"/>
     </row>
     <row r="59" spans="1:28" ht="18" customHeight="1">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="7">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="4">
         <v>-0.03</v>
       </c>
       <c r="F59" s="3">
@@ -4080,23 +4083,23 @@
       <c r="J59" s="2">
         <v>826</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="20">
         <v>0.05</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="7">
+      <c r="L59" s="30"/>
+      <c r="M59" s="22">
         <v>0.08</v>
       </c>
-      <c r="N59" s="4"/>
-      <c r="O59" s="6">
+      <c r="N59" s="30"/>
+      <c r="O59" s="23">
         <v>0.63</v>
       </c>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="5">
+      <c r="P59" s="30"/>
+      <c r="Q59" s="24">
         <v>1.18</v>
       </c>
-      <c r="R59" s="4"/>
-      <c r="S59" s="9">
+      <c r="R59" s="30"/>
+      <c r="S59" s="4">
         <v>0.1</v>
       </c>
       <c r="T59" s="2" t="s">
@@ -4112,19 +4115,19 @@
       <c r="AB59" s="2"/>
     </row>
     <row r="60" spans="1:28" ht="18" customHeight="1">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="7">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="4">
         <v>-0.03</v>
       </c>
       <c r="F60" s="3">
@@ -4142,23 +4145,23 @@
       <c r="J60" s="2">
         <v>657</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="20">
         <v>0.06</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="7">
+      <c r="L60" s="30"/>
+      <c r="M60" s="22">
         <v>0.09</v>
       </c>
-      <c r="N60" s="4"/>
-      <c r="O60" s="6">
+      <c r="N60" s="30"/>
+      <c r="O60" s="23">
         <v>0.78</v>
       </c>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="5">
+      <c r="P60" s="30"/>
+      <c r="Q60" s="24">
         <v>1.46</v>
       </c>
-      <c r="R60" s="4"/>
-      <c r="S60" s="9">
+      <c r="R60" s="30"/>
+      <c r="S60" s="4">
         <v>0.2</v>
       </c>
       <c r="T60" s="2" t="s">
@@ -4174,24 +4177,24 @@
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="1:28" ht="18" customHeight="1">
-      <c r="A61" s="16"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -4204,19 +4207,19 @@
       <c r="AB61" s="2"/>
     </row>
     <row r="62" spans="1:28" ht="18" customHeight="1">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="5">
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="4">
         <v>-0.03</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="4">
         <v>-0.01</v>
       </c>
       <c r="F62" s="3">
@@ -4234,31 +4237,31 @@
       <c r="J62" s="2">
         <v>1491</v>
       </c>
-      <c r="K62" s="8">
-        <v>3.3333333333333E-2</v>
-      </c>
-      <c r="L62" s="15" t="s">
+      <c r="K62" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="L62" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="22">
         <v>0.05</v>
       </c>
-      <c r="N62" s="14" t="s">
+      <c r="N62" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="23">
         <v>0.08</v>
       </c>
-      <c r="P62" s="13" t="s">
+      <c r="P62" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="5">
-        <v>0.65217391304347805</v>
-      </c>
-      <c r="R62" s="12" t="s">
+      <c r="Q62" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="R62" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S62" s="9">
+      <c r="S62" s="4">
         <v>0.4</v>
       </c>
       <c r="T62" s="2" t="s">
@@ -4276,19 +4279,19 @@
       <c r="AB62" s="2"/>
     </row>
     <row r="63" spans="1:28" ht="18" customHeight="1">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="5">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="4">
         <v>-0.08</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="4">
         <v>-0.03</v>
       </c>
       <c r="F63" s="3">
@@ -4306,23 +4309,23 @@
       <c r="J63" s="2">
         <v>1737</v>
       </c>
-      <c r="K63" s="8">
-        <v>3.3333333333333E-2</v>
-      </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="7">
+      <c r="K63" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="L63" s="30"/>
+      <c r="M63" s="22">
         <v>0.05</v>
       </c>
-      <c r="N63" s="4"/>
-      <c r="O63" s="6">
+      <c r="N63" s="30"/>
+      <c r="O63" s="23">
         <v>0.08</v>
       </c>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="5">
-        <v>0.56363636363636405</v>
-      </c>
-      <c r="R63" s="4"/>
-      <c r="S63" s="9">
+      <c r="P63" s="30"/>
+      <c r="Q63" s="24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R63" s="30"/>
+      <c r="S63" s="4">
         <v>0.1</v>
       </c>
       <c r="T63" s="2" t="s">
@@ -4338,19 +4341,19 @@
       <c r="AB63" s="2"/>
     </row>
     <row r="64" spans="1:28" ht="18" customHeight="1">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="5">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="4">
         <v>-0.03</v>
       </c>
       <c r="F64" s="3">
@@ -4368,23 +4371,23 @@
       <c r="J64" s="2">
         <v>1007</v>
       </c>
-      <c r="K64" s="8">
-        <v>4.1379310344828002E-2</v>
-      </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="7">
+      <c r="K64" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="L64" s="30"/>
+      <c r="M64" s="22">
         <v>0.05</v>
       </c>
-      <c r="N64" s="4"/>
-      <c r="O64" s="6">
-        <v>9.0666666666667006E-2</v>
-      </c>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="5">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="R64" s="4"/>
-      <c r="S64" s="9">
+      <c r="N64" s="30"/>
+      <c r="O64" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="R64" s="30"/>
+      <c r="S64" s="4">
         <v>0.2</v>
       </c>
       <c r="T64" s="2" t="s">
@@ -4400,19 +4403,19 @@
       <c r="AB64" s="2"/>
     </row>
     <row r="65" spans="1:28" ht="18" customHeight="1">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="5">
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="4">
         <v>-0.03</v>
       </c>
       <c r="F65" s="3">
@@ -4430,22 +4433,22 @@
       <c r="J65" s="2">
         <v>1007</v>
       </c>
-      <c r="K65" s="8">
-        <v>4.1379310344828002E-2</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="7">
+      <c r="K65" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="L65" s="30"/>
+      <c r="M65" s="22">
         <v>0.05</v>
       </c>
-      <c r="N65" s="4"/>
-      <c r="O65" s="6">
-        <v>9.0666666666667006E-2</v>
-      </c>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="5">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="R65" s="4"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="R65" s="30"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -4468,14 +4471,14 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -4498,14 +4501,14 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -4528,14 +4531,14 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -4558,14 +4561,14 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -4588,14 +4591,14 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -4618,14 +4621,14 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -4648,14 +4651,14 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -4678,14 +4681,14 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -4708,14 +4711,14 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -4738,14 +4741,14 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
@@ -4768,14 +4771,14 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
@@ -4798,14 +4801,14 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
@@ -4828,14 +4831,14 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
@@ -4858,14 +4861,14 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
@@ -4888,14 +4891,14 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
@@ -4918,14 +4921,14 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
@@ -4948,14 +4951,14 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
@@ -4978,14 +4981,14 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
@@ -5008,14 +5011,14 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
@@ -5038,14 +5041,14 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
@@ -5068,14 +5071,14 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
@@ -5098,14 +5101,14 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
@@ -5128,14 +5131,14 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
@@ -5158,14 +5161,14 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
@@ -5188,14 +5191,14 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
@@ -5218,14 +5221,14 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
@@ -5248,14 +5251,14 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
@@ -5278,14 +5281,14 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
@@ -5308,14 +5311,14 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
@@ -5338,14 +5341,14 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
@@ -5368,14 +5371,14 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
@@ -5398,14 +5401,14 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
@@ -5428,14 +5431,14 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
@@ -5458,14 +5461,14 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
@@ -5488,14 +5491,14 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
@@ -5518,14 +5521,14 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
@@ -5548,14 +5551,14 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
@@ -5578,14 +5581,14 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
@@ -5608,14 +5611,14 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
@@ -5638,14 +5641,14 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
@@ -5668,14 +5671,14 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
@@ -5698,14 +5701,14 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
@@ -5728,14 +5731,14 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
@@ -5758,14 +5761,14 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
@@ -5788,14 +5791,14 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -5818,14 +5821,14 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
@@ -5848,14 +5851,14 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
@@ -5878,14 +5881,14 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -5908,14 +5911,14 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
@@ -5938,14 +5941,14 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
@@ -5968,14 +5971,14 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
@@ -5998,14 +6001,14 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
@@ -6028,14 +6031,14 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
@@ -6058,14 +6061,14 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
@@ -6088,14 +6091,14 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
@@ -6118,14 +6121,14 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
@@ -6148,14 +6151,14 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
@@ -6178,14 +6181,14 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19"/>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
@@ -6208,14 +6211,14 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
@@ -6238,14 +6241,14 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
@@ -6268,14 +6271,14 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
@@ -6298,14 +6301,14 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
@@ -6328,14 +6331,14 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="19"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
@@ -6358,14 +6361,14 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
@@ -6388,14 +6391,14 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
@@ -6418,14 +6421,14 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
@@ -6448,14 +6451,14 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
@@ -6478,14 +6481,14 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
@@ -6508,14 +6511,14 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="2"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
@@ -6538,14 +6541,14 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
@@ -6568,14 +6571,14 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
@@ -6598,14 +6601,14 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
@@ -6628,14 +6631,14 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
@@ -6658,14 +6661,14 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
@@ -6688,14 +6691,14 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="2"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
@@ -6718,14 +6721,14 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
@@ -6748,14 +6751,14 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
@@ -6778,14 +6781,14 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+      <c r="N143" s="19"/>
+      <c r="O143" s="19"/>
+      <c r="P143" s="19"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="19"/>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
@@ -6808,14 +6811,14 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19"/>
+      <c r="N144" s="19"/>
+      <c r="O144" s="19"/>
+      <c r="P144" s="19"/>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="19"/>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
@@ -6838,14 +6841,14 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="19"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
@@ -6868,14 +6871,14 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
@@ -6898,14 +6901,14 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
@@ -6928,14 +6931,14 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
@@ -6958,14 +6961,14 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
@@ -6988,14 +6991,14 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="19"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="19"/>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
@@ -7018,14 +7021,14 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="2"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
@@ -7048,14 +7051,14 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
@@ -7078,14 +7081,14 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="2"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
@@ -7108,14 +7111,14 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="19"/>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
@@ -7138,14 +7141,14 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
@@ -7168,14 +7171,14 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
@@ -7198,14 +7201,14 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="19"/>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
@@ -7228,14 +7231,14 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
@@ -7258,14 +7261,14 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
@@ -7288,14 +7291,14 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
@@ -7318,14 +7321,14 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
@@ -7348,14 +7351,14 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
@@ -7378,14 +7381,14 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
@@ -7408,14 +7411,14 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
@@ -7438,14 +7441,14 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
@@ -7468,14 +7471,14 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
@@ -7498,14 +7501,14 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="19"/>
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
@@ -7528,14 +7531,14 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="19"/>
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
@@ -7558,14 +7561,14 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="19"/>
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
@@ -7588,14 +7591,14 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="19"/>
+      <c r="M170" s="19"/>
+      <c r="N170" s="19"/>
+      <c r="O170" s="19"/>
+      <c r="P170" s="19"/>
+      <c r="Q170" s="19"/>
+      <c r="R170" s="19"/>
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
@@ -7618,14 +7621,14 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="19"/>
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
@@ -7648,14 +7651,14 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="19"/>
+      <c r="M172" s="19"/>
+      <c r="N172" s="19"/>
+      <c r="O172" s="19"/>
+      <c r="P172" s="19"/>
+      <c r="Q172" s="19"/>
+      <c r="R172" s="19"/>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
@@ -7678,14 +7681,14 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="19"/>
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
@@ -7708,14 +7711,14 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="19"/>
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
@@ -7738,14 +7741,14 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
+      <c r="K175" s="19"/>
+      <c r="L175" s="19"/>
+      <c r="M175" s="19"/>
+      <c r="N175" s="19"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="19"/>
+      <c r="Q175" s="19"/>
+      <c r="R175" s="19"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
@@ -7768,14 +7771,14 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="2"/>
+      <c r="K176" s="19"/>
+      <c r="L176" s="19"/>
+      <c r="M176" s="19"/>
+      <c r="N176" s="19"/>
+      <c r="O176" s="19"/>
+      <c r="P176" s="19"/>
+      <c r="Q176" s="19"/>
+      <c r="R176" s="19"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
@@ -7798,14 +7801,14 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="19"/>
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+      <c r="O177" s="19"/>
+      <c r="P177" s="19"/>
+      <c r="Q177" s="19"/>
+      <c r="R177" s="19"/>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
       <c r="U177" s="2"/>
@@ -7828,14 +7831,14 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
+      <c r="K178" s="19"/>
+      <c r="L178" s="19"/>
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+      <c r="O178" s="19"/>
+      <c r="P178" s="19"/>
+      <c r="Q178" s="19"/>
+      <c r="R178" s="19"/>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
       <c r="U178" s="2"/>
@@ -7858,14 +7861,14 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="19"/>
+      <c r="P179" s="19"/>
+      <c r="Q179" s="19"/>
+      <c r="R179" s="19"/>
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
@@ -7888,14 +7891,14 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="19"/>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="19"/>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
@@ -7918,14 +7921,14 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="19"/>
+      <c r="N181" s="19"/>
+      <c r="O181" s="19"/>
+      <c r="P181" s="19"/>
+      <c r="Q181" s="19"/>
+      <c r="R181" s="19"/>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
       <c r="U181" s="2"/>
@@ -7948,14 +7951,14 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
-      <c r="Q182" s="2"/>
-      <c r="R182" s="2"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
+      <c r="M182" s="19"/>
+      <c r="N182" s="19"/>
+      <c r="O182" s="19"/>
+      <c r="P182" s="19"/>
+      <c r="Q182" s="19"/>
+      <c r="R182" s="19"/>
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
       <c r="U182" s="2"/>
@@ -7978,14 +7981,14 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="19"/>
+      <c r="N183" s="19"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="19"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="19"/>
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
@@ -8008,14 +8011,14 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="2"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="19"/>
+      <c r="N184" s="19"/>
+      <c r="O184" s="19"/>
+      <c r="P184" s="19"/>
+      <c r="Q184" s="19"/>
+      <c r="R184" s="19"/>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
@@ -8038,14 +8041,14 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="2"/>
-      <c r="R185" s="2"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="19"/>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
       <c r="U185" s="2"/>
@@ -8068,14 +8071,14 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
-      <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="2"/>
-      <c r="R186" s="2"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="19"/>
+      <c r="N186" s="19"/>
+      <c r="O186" s="19"/>
+      <c r="P186" s="19"/>
+      <c r="Q186" s="19"/>
+      <c r="R186" s="19"/>
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
       <c r="U186" s="2"/>
@@ -8098,14 +8101,14 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="19"/>
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
       <c r="U187" s="2"/>
@@ -8128,14 +8131,14 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
+      <c r="K188" s="19"/>
+      <c r="L188" s="19"/>
+      <c r="M188" s="19"/>
+      <c r="N188" s="19"/>
+      <c r="O188" s="19"/>
+      <c r="P188" s="19"/>
+      <c r="Q188" s="19"/>
+      <c r="R188" s="19"/>
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
       <c r="U188" s="2"/>
@@ -8158,14 +8161,14 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="19"/>
+      <c r="N189" s="19"/>
+      <c r="O189" s="19"/>
+      <c r="P189" s="19"/>
+      <c r="Q189" s="19"/>
+      <c r="R189" s="19"/>
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
@@ -8188,14 +8191,14 @@
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="19"/>
+      <c r="M190" s="19"/>
+      <c r="N190" s="19"/>
+      <c r="O190" s="19"/>
+      <c r="P190" s="19"/>
+      <c r="Q190" s="19"/>
+      <c r="R190" s="19"/>
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
@@ -8218,14 +8221,14 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="19"/>
+      <c r="N191" s="19"/>
+      <c r="O191" s="19"/>
+      <c r="P191" s="19"/>
+      <c r="Q191" s="19"/>
+      <c r="R191" s="19"/>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
       <c r="U191" s="2"/>
@@ -8248,14 +8251,14 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+      <c r="N192" s="19"/>
+      <c r="O192" s="19"/>
+      <c r="P192" s="19"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="19"/>
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
       <c r="U192" s="2"/>
@@ -8278,14 +8281,14 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+      <c r="N193" s="19"/>
+      <c r="O193" s="19"/>
+      <c r="P193" s="19"/>
+      <c r="Q193" s="19"/>
+      <c r="R193" s="19"/>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
       <c r="U193" s="2"/>
@@ -8308,14 +8311,14 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="2"/>
-      <c r="R194" s="2"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="19"/>
+      <c r="N194" s="19"/>
+      <c r="O194" s="19"/>
+      <c r="P194" s="19"/>
+      <c r="Q194" s="19"/>
+      <c r="R194" s="19"/>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
@@ -8338,14 +8341,14 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
+      <c r="K195" s="19"/>
+      <c r="L195" s="19"/>
+      <c r="M195" s="19"/>
+      <c r="N195" s="19"/>
+      <c r="O195" s="19"/>
+      <c r="P195" s="19"/>
+      <c r="Q195" s="19"/>
+      <c r="R195" s="19"/>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
@@ -8368,14 +8371,14 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
+      <c r="K196" s="19"/>
+      <c r="L196" s="19"/>
+      <c r="M196" s="19"/>
+      <c r="N196" s="19"/>
+      <c r="O196" s="19"/>
+      <c r="P196" s="19"/>
+      <c r="Q196" s="19"/>
+      <c r="R196" s="19"/>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
@@ -8398,14 +8401,14 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
+      <c r="K197" s="19"/>
+      <c r="L197" s="19"/>
+      <c r="M197" s="19"/>
+      <c r="N197" s="19"/>
+      <c r="O197" s="19"/>
+      <c r="P197" s="19"/>
+      <c r="Q197" s="19"/>
+      <c r="R197" s="19"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
@@ -8428,14 +8431,14 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
-      <c r="Q198" s="2"/>
-      <c r="R198" s="2"/>
+      <c r="K198" s="19"/>
+      <c r="L198" s="19"/>
+      <c r="M198" s="19"/>
+      <c r="N198" s="19"/>
+      <c r="O198" s="19"/>
+      <c r="P198" s="19"/>
+      <c r="Q198" s="19"/>
+      <c r="R198" s="19"/>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
@@ -8458,14 +8461,14 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="19"/>
+      <c r="N199" s="19"/>
+      <c r="O199" s="19"/>
+      <c r="P199" s="19"/>
+      <c r="Q199" s="19"/>
+      <c r="R199" s="19"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
@@ -8488,14 +8491,14 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
+      <c r="K200" s="19"/>
+      <c r="L200" s="19"/>
+      <c r="M200" s="19"/>
+      <c r="N200" s="19"/>
+      <c r="O200" s="19"/>
+      <c r="P200" s="19"/>
+      <c r="Q200" s="19"/>
+      <c r="R200" s="19"/>
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
       <c r="U200" s="2"/>
@@ -8518,14 +8521,14 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
+      <c r="K201" s="19"/>
+      <c r="L201" s="19"/>
+      <c r="M201" s="19"/>
+      <c r="N201" s="19"/>
+      <c r="O201" s="19"/>
+      <c r="P201" s="19"/>
+      <c r="Q201" s="19"/>
+      <c r="R201" s="19"/>
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
@@ -8548,14 +8551,14 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="2"/>
+      <c r="K202" s="19"/>
+      <c r="L202" s="19"/>
+      <c r="M202" s="19"/>
+      <c r="N202" s="19"/>
+      <c r="O202" s="19"/>
+      <c r="P202" s="19"/>
+      <c r="Q202" s="19"/>
+      <c r="R202" s="19"/>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
@@ -8578,14 +8581,14 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
+      <c r="K203" s="19"/>
+      <c r="L203" s="19"/>
+      <c r="M203" s="19"/>
+      <c r="N203" s="19"/>
+      <c r="O203" s="19"/>
+      <c r="P203" s="19"/>
+      <c r="Q203" s="19"/>
+      <c r="R203" s="19"/>
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
@@ -8608,14 +8611,14 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-      <c r="Q204" s="2"/>
-      <c r="R204" s="2"/>
+      <c r="K204" s="19"/>
+      <c r="L204" s="19"/>
+      <c r="M204" s="19"/>
+      <c r="N204" s="19"/>
+      <c r="O204" s="19"/>
+      <c r="P204" s="19"/>
+      <c r="Q204" s="19"/>
+      <c r="R204" s="19"/>
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
       <c r="U204" s="2"/>
@@ -8638,14 +8641,14 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
+      <c r="K205" s="19"/>
+      <c r="L205" s="19"/>
+      <c r="M205" s="19"/>
+      <c r="N205" s="19"/>
+      <c r="O205" s="19"/>
+      <c r="P205" s="19"/>
+      <c r="Q205" s="19"/>
+      <c r="R205" s="19"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
       <c r="U205" s="2"/>
@@ -8668,14 +8671,14 @@
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="2"/>
+      <c r="K206" s="19"/>
+      <c r="L206" s="19"/>
+      <c r="M206" s="19"/>
+      <c r="N206" s="19"/>
+      <c r="O206" s="19"/>
+      <c r="P206" s="19"/>
+      <c r="Q206" s="19"/>
+      <c r="R206" s="19"/>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
       <c r="U206" s="2"/>
@@ -8698,14 +8701,14 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
+      <c r="K207" s="19"/>
+      <c r="L207" s="19"/>
+      <c r="M207" s="19"/>
+      <c r="N207" s="19"/>
+      <c r="O207" s="19"/>
+      <c r="P207" s="19"/>
+      <c r="Q207" s="19"/>
+      <c r="R207" s="19"/>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
       <c r="U207" s="2"/>
@@ -8719,56 +8722,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="R8:R11"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="A33:R34"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="P35:P38"/>
-    <mergeCell ref="R35:R38"/>
-    <mergeCell ref="A39:R39"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="P50:P53"/>
-    <mergeCell ref="R50:R53"/>
-    <mergeCell ref="A54:R54"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="R45:R48"/>
-    <mergeCell ref="A49:R49"/>
     <mergeCell ref="L62:L65"/>
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="P62:P65"/>
@@ -8778,6 +8731,56 @@
     <mergeCell ref="P55:P60"/>
     <mergeCell ref="R55:R60"/>
     <mergeCell ref="A61:R61"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="N45:N48"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="R45:R48"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="P50:P53"/>
+    <mergeCell ref="R50:R53"/>
+    <mergeCell ref="A54:R54"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="P35:P38"/>
+    <mergeCell ref="R35:R38"/>
+    <mergeCell ref="A39:R39"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="R29:R32"/>
+    <mergeCell ref="A33:R34"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="R8:R11"/>
+    <mergeCell ref="A12:R12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/局外维修损耗计算器/中级维修/S5护甲数据.xlsx
+++ b/局外维修损耗计算器/中级维修/S5护甲数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\局内维修损耗计算模拟\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\局外维修损耗计算器\初级维修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78998EE9-74D1-48D5-8E65-3E421EA3C04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281F736-2416-446E-9FFA-7E8A113703B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{DA9659AD-064F-414B-8551-2A3419EEC3A3}"/>
   </bookViews>
@@ -339,9 +339,9 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +397,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -458,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,52 +512,55 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,16 +900,16 @@
   <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35:P38"/>
+      <selection pane="bottomRight" activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="18" width="20.6640625" style="21" customWidth="1"/>
+    <col min="11" max="18" width="20.6640625" style="20" customWidth="1"/>
     <col min="19" max="28" width="20.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="20.6640625" customWidth="1"/>
   </cols>
@@ -918,14 +929,14 @@
         <v>85</v>
       </c>
       <c r="J1" s="2"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -967,28 +978,28 @@
       <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="19" t="s">
         <v>74</v>
       </c>
       <c r="W2" s="2"/>
@@ -1020,37 +1031,37 @@
       <c r="G3" s="2">
         <v>20</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="21">
         <v>17</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="21">
         <v>0.15</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="21">
         <v>55</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="16">
         <v>3</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="17">
         <v>6</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="18">
         <v>8</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="19">
         <v>9</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="2"/>
@@ -1086,22 +1097,28 @@
       <c r="G4" s="2">
         <v>25</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="20">
+      <c r="H4" s="21">
+        <v>22.75</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="J4" s="21">
+        <v>44</v>
+      </c>
+      <c r="K4" s="16">
         <v>3</v>
       </c>
       <c r="L4" s="29"/>
-      <c r="M4" s="22">
+      <c r="M4" s="17">
         <v>6</v>
       </c>
       <c r="N4" s="29"/>
-      <c r="O4" s="23">
+      <c r="O4" s="18">
         <v>8</v>
       </c>
       <c r="P4" s="29"/>
-      <c r="Q4" s="24">
+      <c r="Q4" s="19">
         <v>9</v>
       </c>
       <c r="R4" s="29"/>
@@ -1138,22 +1155,28 @@
       <c r="G5" s="2">
         <v>30</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="20">
+      <c r="H5" s="21">
+        <v>28.2</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J5" s="21">
+        <v>37</v>
+      </c>
+      <c r="K5" s="16">
         <v>3</v>
       </c>
       <c r="L5" s="29"/>
-      <c r="M5" s="22">
+      <c r="M5" s="17">
         <v>6</v>
       </c>
       <c r="N5" s="29"/>
-      <c r="O5" s="23">
+      <c r="O5" s="18">
         <v>8</v>
       </c>
       <c r="P5" s="29"/>
-      <c r="Q5" s="24">
+      <c r="Q5" s="19">
         <v>9</v>
       </c>
       <c r="R5" s="29"/>
@@ -1190,22 +1213,28 @@
       <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="20">
+      <c r="H6" s="21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="J6" s="21">
+        <v>55</v>
+      </c>
+      <c r="K6" s="16">
         <v>3</v>
       </c>
       <c r="L6" s="29"/>
-      <c r="M6" s="22">
+      <c r="M6" s="17">
         <v>6</v>
       </c>
       <c r="N6" s="29"/>
-      <c r="O6" s="23">
+      <c r="O6" s="18">
         <v>8</v>
       </c>
       <c r="P6" s="29"/>
-      <c r="Q6" s="24">
+      <c r="Q6" s="19">
         <v>9</v>
       </c>
       <c r="R6" s="29"/>
@@ -1221,24 +1250,24 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1278,29 +1307,31 @@
       <c r="I8" s="2">
         <v>0.15</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="20">
+      <c r="J8" s="21">
+        <v>101</v>
+      </c>
+      <c r="K8" s="16">
         <v>2</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="17">
         <v>4</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="18">
         <v>6</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="19">
         <v>7</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S8" s="2"/>
@@ -1342,22 +1373,22 @@
       <c r="I9" s="2">
         <v>0.09</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="21">
         <v>84</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="16">
         <v>2</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="22">
+      <c r="M9" s="17">
         <v>4</v>
       </c>
       <c r="N9" s="29"/>
-      <c r="O9" s="23">
+      <c r="O9" s="18">
         <v>6</v>
       </c>
       <c r="P9" s="29"/>
-      <c r="Q9" s="24">
+      <c r="Q9" s="19">
         <v>7</v>
       </c>
       <c r="R9" s="29"/>
@@ -1400,20 +1431,22 @@
       <c r="I10" s="2">
         <v>0.06</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="20">
+      <c r="J10" s="21">
+        <v>71</v>
+      </c>
+      <c r="K10" s="16">
         <v>2</v>
       </c>
       <c r="L10" s="29"/>
-      <c r="M10" s="22">
+      <c r="M10" s="17">
         <v>4</v>
       </c>
       <c r="N10" s="29"/>
-      <c r="O10" s="23">
+      <c r="O10" s="18">
         <v>6</v>
       </c>
       <c r="P10" s="29"/>
-      <c r="Q10" s="24">
+      <c r="Q10" s="19">
         <v>7</v>
       </c>
       <c r="R10" s="29"/>
@@ -1456,20 +1489,22 @@
       <c r="I11" s="2">
         <v>0.12</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="20">
+      <c r="J11" s="21">
+        <v>91</v>
+      </c>
+      <c r="K11" s="16">
         <v>2</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="22">
+      <c r="M11" s="17">
         <v>4</v>
       </c>
       <c r="N11" s="29"/>
-      <c r="O11" s="23">
+      <c r="O11" s="18">
         <v>6</v>
       </c>
       <c r="P11" s="29"/>
-      <c r="Q11" s="24">
+      <c r="Q11" s="19">
         <v>7</v>
       </c>
       <c r="R11" s="29"/>
@@ -1485,24 +1520,24 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="15"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="31"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1545,28 +1580,28 @@
       <c r="J13" s="2">
         <v>145</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="16">
         <v>1.55</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="17">
         <v>2.5</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="18">
         <v>3.91</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="19">
         <v>5.86</v>
       </c>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S13" s="2"/>
@@ -1611,22 +1646,22 @@
       <c r="J14" s="2">
         <v>112</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="16">
         <v>1.95</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="22">
+      <c r="L14" s="23"/>
+      <c r="M14" s="17">
         <v>2.6</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="23">
+      <c r="N14" s="23"/>
+      <c r="O14" s="18">
         <v>4.0599999999999996</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="24">
+      <c r="P14" s="23"/>
+      <c r="Q14" s="19">
         <v>6.09</v>
       </c>
-      <c r="R14" s="30"/>
+      <c r="R14" s="23"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1669,19 +1704,19 @@
       <c r="J15" s="2">
         <v>138</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="16">
         <v>1.58</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="22">
+      <c r="M15" s="17">
         <v>2.11</v>
       </c>
       <c r="N15" s="29"/>
-      <c r="O15" s="23">
+      <c r="O15" s="18">
         <v>3.29</v>
       </c>
       <c r="P15" s="29"/>
-      <c r="Q15" s="24">
+      <c r="Q15" s="19">
         <v>4.9400000000000004</v>
       </c>
       <c r="R15" s="29"/>
@@ -1727,19 +1762,19 @@
       <c r="J16" s="2">
         <v>140</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="16">
         <v>1.56</v>
       </c>
       <c r="L16" s="29"/>
-      <c r="M16" s="22">
+      <c r="M16" s="17">
         <v>2.08</v>
       </c>
       <c r="N16" s="29"/>
-      <c r="O16" s="23">
+      <c r="O16" s="18">
         <v>3.25</v>
       </c>
       <c r="P16" s="29"/>
-      <c r="Q16" s="24">
+      <c r="Q16" s="19">
         <v>4.88</v>
       </c>
       <c r="R16" s="29"/>
@@ -1755,24 +1790,24 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="18" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="15"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="31"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1815,28 +1850,28 @@
       <c r="J18" s="2">
         <v>168</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="16">
         <v>0.5</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="17">
         <v>1.86</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="18">
         <v>2.92</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="19">
         <v>4.38</v>
       </c>
-      <c r="R18" s="28" t="s">
+      <c r="R18" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S18" s="2"/>
@@ -1881,22 +1916,22 @@
       <c r="J19" s="2">
         <v>221</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="16">
         <v>0.5</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="22">
+      <c r="L19" s="23"/>
+      <c r="M19" s="17">
         <v>1.26</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="23">
+      <c r="N19" s="23"/>
+      <c r="O19" s="18">
         <v>1.97</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="24">
+      <c r="P19" s="23"/>
+      <c r="Q19" s="19">
         <v>2.95</v>
       </c>
-      <c r="R19" s="30"/>
+      <c r="R19" s="23"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1939,19 +1974,19 @@
       <c r="J20" s="2">
         <v>233</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="16">
         <v>0.41</v>
       </c>
       <c r="L20" s="29"/>
-      <c r="M20" s="22">
+      <c r="M20" s="17">
         <v>1.41</v>
       </c>
       <c r="N20" s="29"/>
-      <c r="O20" s="23">
+      <c r="O20" s="18">
         <v>2.21</v>
       </c>
       <c r="P20" s="29"/>
-      <c r="Q20" s="24">
+      <c r="Q20" s="19">
         <v>3.31</v>
       </c>
       <c r="R20" s="29"/>
@@ -1997,19 +2032,19 @@
       <c r="J21" s="2">
         <v>248</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="16">
         <v>0.24</v>
       </c>
       <c r="L21" s="29"/>
-      <c r="M21" s="22">
+      <c r="M21" s="17">
         <v>1.19</v>
       </c>
       <c r="N21" s="29"/>
-      <c r="O21" s="23">
+      <c r="O21" s="18">
         <v>1.87</v>
       </c>
       <c r="P21" s="29"/>
-      <c r="Q21" s="24">
+      <c r="Q21" s="19">
         <v>2.8</v>
       </c>
       <c r="R21" s="29"/>
@@ -2055,19 +2090,19 @@
       <c r="J22" s="2">
         <v>262</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="16">
         <v>0.2</v>
       </c>
       <c r="L22" s="29"/>
-      <c r="M22" s="22">
+      <c r="M22" s="17">
         <v>1.35</v>
       </c>
       <c r="N22" s="29"/>
-      <c r="O22" s="23">
+      <c r="O22" s="18">
         <v>2.11</v>
       </c>
       <c r="P22" s="29"/>
-      <c r="Q22" s="24">
+      <c r="Q22" s="19">
         <v>3.16</v>
       </c>
       <c r="R22" s="29"/>
@@ -2083,24 +2118,24 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="18" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2143,28 +2178,28 @@
       <c r="J24" s="2">
         <v>394</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="16">
         <v>0.19</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="17">
         <v>0.32</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="18">
         <v>1.19</v>
       </c>
-      <c r="P24" s="27" t="s">
+      <c r="P24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="19">
         <v>1.78</v>
       </c>
-      <c r="R24" s="28" t="s">
+      <c r="R24" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S24" s="2"/>
@@ -2209,19 +2244,19 @@
       <c r="J25" s="2">
         <v>587</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="16">
         <v>0.18</v>
       </c>
       <c r="L25" s="29"/>
-      <c r="M25" s="22">
+      <c r="M25" s="17">
         <v>0.28999999999999998</v>
       </c>
       <c r="N25" s="29"/>
-      <c r="O25" s="23">
+      <c r="O25" s="18">
         <v>0.81</v>
       </c>
       <c r="P25" s="29"/>
-      <c r="Q25" s="24">
+      <c r="Q25" s="19">
         <v>1.21</v>
       </c>
       <c r="R25" s="29"/>
@@ -2267,19 +2302,19 @@
       <c r="J26" s="2">
         <v>374</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="16">
         <v>0.15</v>
       </c>
       <c r="L26" s="29"/>
-      <c r="M26" s="22">
+      <c r="M26" s="17">
         <v>0.25</v>
       </c>
       <c r="N26" s="29"/>
-      <c r="O26" s="23">
+      <c r="O26" s="18">
         <v>1.25</v>
       </c>
       <c r="P26" s="29"/>
-      <c r="Q26" s="24">
+      <c r="Q26" s="19">
         <v>1.88</v>
       </c>
       <c r="R26" s="29"/>
@@ -2325,19 +2360,19 @@
       <c r="J27" s="2">
         <v>325</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="16">
         <v>0.16</v>
       </c>
       <c r="L27" s="29"/>
-      <c r="M27" s="22">
+      <c r="M27" s="17">
         <v>0.27</v>
       </c>
       <c r="N27" s="29"/>
-      <c r="O27" s="23">
+      <c r="O27" s="18">
         <v>1.44</v>
       </c>
       <c r="P27" s="29"/>
-      <c r="Q27" s="24">
+      <c r="Q27" s="19">
         <v>2.16</v>
       </c>
       <c r="R27" s="29"/>
@@ -2353,24 +2388,24 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="18" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -2413,28 +2448,28 @@
       <c r="J29" s="2">
         <v>757</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="16">
         <v>0.1</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="17">
         <v>0.17</v>
       </c>
-      <c r="N29" s="26" t="s">
+      <c r="N29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="18">
         <v>0.27</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="19">
         <v>0.81</v>
       </c>
-      <c r="R29" s="28" t="s">
+      <c r="R29" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S29" s="2"/>
@@ -2479,19 +2514,19 @@
       <c r="J30" s="2">
         <v>1038</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="16">
         <v>0.1</v>
       </c>
       <c r="L30" s="29"/>
-      <c r="M30" s="22">
+      <c r="M30" s="17">
         <v>0.17</v>
       </c>
       <c r="N30" s="29"/>
-      <c r="O30" s="23">
+      <c r="O30" s="18">
         <v>0.27</v>
       </c>
       <c r="P30" s="29"/>
-      <c r="Q30" s="24">
+      <c r="Q30" s="19">
         <v>0.59</v>
       </c>
       <c r="R30" s="29"/>
@@ -2537,19 +2572,19 @@
       <c r="J31" s="2">
         <v>677</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="16">
         <v>0.1</v>
       </c>
       <c r="L31" s="29"/>
-      <c r="M31" s="22">
+      <c r="M31" s="17">
         <v>0.17</v>
       </c>
       <c r="N31" s="29"/>
-      <c r="O31" s="23">
+      <c r="O31" s="18">
         <v>0.26</v>
       </c>
       <c r="P31" s="29"/>
-      <c r="Q31" s="24">
+      <c r="Q31" s="19">
         <v>0.9</v>
       </c>
       <c r="R31" s="29"/>
@@ -2595,19 +2630,19 @@
       <c r="J32" s="2">
         <v>1039</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="16">
         <v>0.12</v>
       </c>
       <c r="L32" s="29"/>
-      <c r="M32" s="22">
+      <c r="M32" s="17">
         <v>0.19</v>
       </c>
       <c r="N32" s="29"/>
-      <c r="O32" s="23">
+      <c r="O32" s="18">
         <v>0.3</v>
       </c>
       <c r="P32" s="29"/>
-      <c r="Q32" s="24">
+      <c r="Q32" s="19">
         <v>0.59</v>
       </c>
       <c r="R32" s="29"/>
@@ -2623,24 +2658,24 @@
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" ht="18" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -2653,24 +2688,24 @@
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="1:28" ht="18" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
       <c r="S34" s="2" t="s">
         <v>45</v>
       </c>
@@ -2710,37 +2745,37 @@
       <c r="G35" s="2">
         <v>10</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="21">
         <v>8.5</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="21">
         <v>0.15</v>
       </c>
-      <c r="J35" s="2">
-        <v>203</v>
-      </c>
-      <c r="K35" s="20">
+      <c r="J35" s="21">
+        <v>87</v>
+      </c>
+      <c r="K35" s="16">
         <v>4</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="17">
         <v>4</v>
       </c>
-      <c r="N35" s="26" t="s">
+      <c r="N35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="18">
         <v>6</v>
       </c>
-      <c r="P35" s="27" t="s">
+      <c r="P35" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="19">
         <v>8</v>
       </c>
-      <c r="R35" s="28" t="s">
+      <c r="R35" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S35" s="2" t="s">
@@ -2780,22 +2815,28 @@
       <c r="G36" s="2">
         <v>10</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="20">
+      <c r="H36" s="21">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="J36" s="21">
+        <v>87</v>
+      </c>
+      <c r="K36" s="16">
         <v>4</v>
       </c>
       <c r="L36" s="29"/>
-      <c r="M36" s="22">
+      <c r="M36" s="17">
         <v>4</v>
       </c>
       <c r="N36" s="29"/>
-      <c r="O36" s="23">
+      <c r="O36" s="18">
         <v>6</v>
       </c>
       <c r="P36" s="29"/>
-      <c r="Q36" s="24">
+      <c r="Q36" s="19">
         <v>8</v>
       </c>
       <c r="R36" s="29"/>
@@ -2836,25 +2877,31 @@
       <c r="G37" s="2">
         <v>12</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="20">
+      <c r="H37" s="21">
+        <v>11.28</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J37" s="21">
+        <v>72</v>
+      </c>
+      <c r="K37" s="16">
         <v>4</v>
       </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="22">
+      <c r="L37" s="23"/>
+      <c r="M37" s="17">
         <v>4</v>
       </c>
-      <c r="N37" s="30"/>
-      <c r="O37" s="23">
+      <c r="N37" s="23"/>
+      <c r="O37" s="18">
         <v>6</v>
       </c>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="24">
+      <c r="P37" s="23"/>
+      <c r="Q37" s="19">
         <v>8</v>
       </c>
-      <c r="R37" s="30"/>
+      <c r="R37" s="23"/>
       <c r="S37" s="4">
         <v>0.1</v>
       </c>
@@ -2892,25 +2939,31 @@
       <c r="G38" s="2">
         <v>10</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="20">
+      <c r="H38" s="21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="J38" s="21">
+        <v>87</v>
+      </c>
+      <c r="K38" s="16">
         <v>4</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="22">
+      <c r="L38" s="23"/>
+      <c r="M38" s="17">
         <v>4</v>
       </c>
-      <c r="N38" s="30"/>
-      <c r="O38" s="23">
+      <c r="N38" s="23"/>
+      <c r="O38" s="18">
         <v>6</v>
       </c>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="24">
+      <c r="P38" s="23"/>
+      <c r="Q38" s="19">
         <v>8</v>
       </c>
-      <c r="R38" s="30"/>
+      <c r="R38" s="23"/>
       <c r="S38" s="2" t="s">
         <v>13</v>
       </c>
@@ -2927,24 +2980,24 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" ht="18" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="15"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="31"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -2978,31 +3031,37 @@
       <c r="G40" s="2">
         <v>18</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="20">
+      <c r="H40" s="21">
+        <v>15.3</v>
+      </c>
+      <c r="I40" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="J40" s="21">
+        <v>153</v>
+      </c>
+      <c r="K40" s="16">
         <v>2</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="L40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="17">
         <v>2</v>
       </c>
-      <c r="N40" s="26" t="s">
+      <c r="N40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O40" s="23">
+      <c r="O40" s="18">
         <v>3</v>
       </c>
-      <c r="P40" s="27" t="s">
+      <c r="P40" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q40" s="24">
+      <c r="Q40" s="19">
         <v>4</v>
       </c>
-      <c r="R40" s="28" t="s">
+      <c r="R40" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S40" s="4">
@@ -3042,25 +3101,31 @@
       <c r="G41" s="2">
         <v>15</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="20">
+      <c r="H41" s="21">
+        <v>13.8</v>
+      </c>
+      <c r="I41" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="J41" s="21">
+        <v>172</v>
+      </c>
+      <c r="K41" s="16">
         <v>2</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="22">
+      <c r="L41" s="23"/>
+      <c r="M41" s="17">
         <v>2</v>
       </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="23">
+      <c r="N41" s="23"/>
+      <c r="O41" s="18">
         <v>3</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="24">
+      <c r="P41" s="23"/>
+      <c r="Q41" s="19">
         <v>4</v>
       </c>
-      <c r="R41" s="30"/>
+      <c r="R41" s="23"/>
       <c r="S41" s="2" t="s">
         <v>13</v>
       </c>
@@ -3098,24 +3163,28 @@
       <c r="G42" s="2">
         <v>20</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2">
+      <c r="H42" s="21">
+        <v>18.8</v>
+      </c>
+      <c r="I42" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J42" s="21">
         <v>143</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="16">
         <v>2</v>
       </c>
       <c r="L42" s="29"/>
-      <c r="M42" s="22">
+      <c r="M42" s="17">
         <v>2</v>
       </c>
       <c r="N42" s="29"/>
-      <c r="O42" s="23">
+      <c r="O42" s="18">
         <v>3</v>
       </c>
       <c r="P42" s="29"/>
-      <c r="Q42" s="24">
+      <c r="Q42" s="19">
         <v>4</v>
       </c>
       <c r="R42" s="29"/>
@@ -3156,22 +3225,28 @@
       <c r="G43" s="2">
         <v>12</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="20">
+      <c r="H43" s="21">
+        <v>10.6</v>
+      </c>
+      <c r="I43" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="J43" s="21">
+        <v>202</v>
+      </c>
+      <c r="K43" s="16">
         <v>2</v>
       </c>
       <c r="L43" s="29"/>
-      <c r="M43" s="22">
+      <c r="M43" s="17">
         <v>2</v>
       </c>
       <c r="N43" s="29"/>
-      <c r="O43" s="23">
+      <c r="O43" s="18">
         <v>3</v>
       </c>
       <c r="P43" s="29"/>
-      <c r="Q43" s="24">
+      <c r="Q43" s="19">
         <v>4</v>
       </c>
       <c r="R43" s="29"/>
@@ -3191,24 +3266,24 @@
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="1:28" ht="18" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="15"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="31"/>
       <c r="S44" s="4"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -3251,28 +3326,28 @@
       <c r="J45" s="2">
         <v>200</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="16">
         <v>1.59</v>
       </c>
-      <c r="L45" s="25" t="s">
+      <c r="L45" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="17">
         <v>2.38</v>
       </c>
-      <c r="N45" s="26" t="s">
+      <c r="N45" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="23">
+      <c r="O45" s="18">
         <v>3.97</v>
       </c>
-      <c r="P45" s="27" t="s">
+      <c r="P45" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="24">
+      <c r="Q45" s="19">
         <v>7.44</v>
       </c>
-      <c r="R45" s="28" t="s">
+      <c r="R45" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S45" s="4">
@@ -3321,22 +3396,22 @@
       <c r="J46" s="2">
         <v>220</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="16">
         <v>1.44</v>
       </c>
-      <c r="L46" s="30"/>
-      <c r="M46" s="22">
+      <c r="L46" s="23"/>
+      <c r="M46" s="17">
         <v>2.16</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="23">
+      <c r="N46" s="23"/>
+      <c r="O46" s="18">
         <v>3.6</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="24">
+      <c r="P46" s="23"/>
+      <c r="Q46" s="19">
         <v>6.75</v>
       </c>
-      <c r="R46" s="30"/>
+      <c r="R46" s="23"/>
       <c r="S46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3382,23 +3457,25 @@
       <c r="I47" s="2">
         <v>0.13</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="20">
+      <c r="J47" s="21">
+        <v>248</v>
+      </c>
+      <c r="K47" s="16">
         <v>1.28</v>
       </c>
-      <c r="L47" s="30"/>
-      <c r="M47" s="22">
+      <c r="L47" s="23"/>
+      <c r="M47" s="17">
         <v>1.92</v>
       </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="23">
+      <c r="N47" s="23"/>
+      <c r="O47" s="18">
         <v>3.2</v>
       </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="24">
+      <c r="P47" s="23"/>
+      <c r="Q47" s="19">
         <v>6</v>
       </c>
-      <c r="R47" s="30"/>
+      <c r="R47" s="23"/>
       <c r="S47" s="4">
         <v>0.2</v>
       </c>
@@ -3447,22 +3524,22 @@
       <c r="J48" s="2">
         <v>276</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="22">
+      <c r="L48" s="23"/>
+      <c r="M48" s="17">
         <v>1.73</v>
       </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="23">
+      <c r="N48" s="23"/>
+      <c r="O48" s="18">
         <v>2.88</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="24">
+      <c r="P48" s="23"/>
+      <c r="Q48" s="19">
         <v>5.39</v>
       </c>
-      <c r="R48" s="30"/>
+      <c r="R48" s="23"/>
       <c r="S48" s="2" t="s">
         <v>13</v>
       </c>
@@ -3479,24 +3556,24 @@
       <c r="AB48" s="2"/>
     </row>
     <row r="49" spans="1:28" ht="18" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -3539,28 +3616,28 @@
       <c r="J50" s="2">
         <v>238</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="16">
         <v>0.21</v>
       </c>
-      <c r="L50" s="25" t="s">
+      <c r="L50" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="17">
         <v>1.47</v>
       </c>
-      <c r="N50" s="26" t="s">
+      <c r="N50" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O50" s="23">
+      <c r="O50" s="18">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P50" s="27" t="s">
+      <c r="P50" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q50" s="24">
+      <c r="Q50" s="19">
         <v>4.59</v>
       </c>
-      <c r="R50" s="28" t="s">
+      <c r="R50" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S50" s="4">
@@ -3611,22 +3688,22 @@
       <c r="J51" s="2">
         <v>587</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="16">
         <v>0.11</v>
       </c>
-      <c r="L51" s="30"/>
-      <c r="M51" s="22">
+      <c r="L51" s="23"/>
+      <c r="M51" s="17">
         <v>0.6</v>
       </c>
-      <c r="N51" s="30"/>
-      <c r="O51" s="23">
+      <c r="N51" s="23"/>
+      <c r="O51" s="18">
         <v>1</v>
       </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="24">
+      <c r="P51" s="23"/>
+      <c r="Q51" s="19">
         <v>1.88</v>
       </c>
-      <c r="R51" s="30"/>
+      <c r="R51" s="23"/>
       <c r="S51" s="4">
         <v>0.5</v>
       </c>
@@ -3675,22 +3752,22 @@
       <c r="J52" s="2">
         <v>404</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="16">
         <v>0.12</v>
       </c>
-      <c r="L52" s="30"/>
-      <c r="M52" s="22">
+      <c r="L52" s="23"/>
+      <c r="M52" s="17">
         <v>0.88</v>
       </c>
-      <c r="N52" s="30"/>
-      <c r="O52" s="23">
+      <c r="N52" s="23"/>
+      <c r="O52" s="18">
         <v>1.47</v>
       </c>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="24">
+      <c r="P52" s="23"/>
+      <c r="Q52" s="19">
         <v>2.76</v>
       </c>
-      <c r="R52" s="30"/>
+      <c r="R52" s="23"/>
       <c r="S52" s="4">
         <v>0.1</v>
       </c>
@@ -3737,22 +3814,22 @@
       <c r="J53" s="2">
         <v>448</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="16">
         <v>0.12</v>
       </c>
-      <c r="L53" s="30"/>
-      <c r="M53" s="22">
+      <c r="L53" s="23"/>
+      <c r="M53" s="17">
         <v>0.78</v>
       </c>
-      <c r="N53" s="30"/>
-      <c r="O53" s="23">
+      <c r="N53" s="23"/>
+      <c r="O53" s="18">
         <v>1.3</v>
       </c>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="24">
+      <c r="P53" s="23"/>
+      <c r="Q53" s="19">
         <v>2.44</v>
       </c>
-      <c r="R53" s="30"/>
+      <c r="R53" s="23"/>
       <c r="S53" s="4">
         <v>0.2</v>
       </c>
@@ -3769,26 +3846,26 @@
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="1:28" ht="18" customHeight="1">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -3831,28 +3908,28 @@
       <c r="J55" s="2">
         <v>366</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="16">
         <v>0.11</v>
       </c>
-      <c r="L55" s="25" t="s">
+      <c r="L55" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="17">
         <v>0.17</v>
       </c>
-      <c r="N55" s="26" t="s">
+      <c r="N55" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O55" s="18">
         <v>1.4</v>
       </c>
-      <c r="P55" s="27" t="s">
+      <c r="P55" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q55" s="24">
+      <c r="Q55" s="19">
         <v>2.63</v>
       </c>
-      <c r="R55" s="28" t="s">
+      <c r="R55" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S55" s="4">
@@ -3903,22 +3980,22 @@
       <c r="J56" s="2">
         <v>1144</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="16">
         <v>0.05</v>
       </c>
-      <c r="L56" s="30"/>
-      <c r="M56" s="22">
+      <c r="L56" s="23"/>
+      <c r="M56" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N56" s="30"/>
-      <c r="O56" s="23">
+      <c r="N56" s="23"/>
+      <c r="O56" s="18">
         <v>0.45</v>
       </c>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="24">
+      <c r="P56" s="23"/>
+      <c r="Q56" s="19">
         <v>0.85</v>
       </c>
-      <c r="R56" s="30"/>
+      <c r="R56" s="23"/>
       <c r="S56" s="4">
         <v>0.4</v>
       </c>
@@ -3967,22 +4044,22 @@
       <c r="J57" s="2">
         <v>826</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="16">
         <v>0.05</v>
       </c>
-      <c r="L57" s="30"/>
-      <c r="M57" s="22">
+      <c r="L57" s="23"/>
+      <c r="M57" s="17">
         <v>0.08</v>
       </c>
-      <c r="N57" s="30"/>
-      <c r="O57" s="23">
+      <c r="N57" s="23"/>
+      <c r="O57" s="18">
         <v>0.63</v>
       </c>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="24">
+      <c r="P57" s="23"/>
+      <c r="Q57" s="19">
         <v>1.18</v>
       </c>
-      <c r="R57" s="30"/>
+      <c r="R57" s="23"/>
       <c r="S57" s="4">
         <v>0.1</v>
       </c>
@@ -4029,14 +4106,22 @@
       <c r="J58" s="2">
         <v>826</v>
       </c>
-      <c r="K58" s="20"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="30"/>
+      <c r="K58" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L58" s="23"/>
+      <c r="M58" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="N58" s="23"/>
+      <c r="O58" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="19">
+        <v>1.18</v>
+      </c>
+      <c r="R58" s="23"/>
       <c r="S58" s="4">
         <v>0.1</v>
       </c>
@@ -4083,22 +4168,22 @@
       <c r="J59" s="2">
         <v>826</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="16">
         <v>0.05</v>
       </c>
-      <c r="L59" s="30"/>
-      <c r="M59" s="22">
+      <c r="L59" s="23"/>
+      <c r="M59" s="17">
         <v>0.08</v>
       </c>
-      <c r="N59" s="30"/>
-      <c r="O59" s="23">
+      <c r="N59" s="23"/>
+      <c r="O59" s="18">
         <v>0.63</v>
       </c>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="24">
+      <c r="P59" s="23"/>
+      <c r="Q59" s="19">
         <v>1.18</v>
       </c>
-      <c r="R59" s="30"/>
+      <c r="R59" s="23"/>
       <c r="S59" s="4">
         <v>0.1</v>
       </c>
@@ -4145,22 +4230,22 @@
       <c r="J60" s="2">
         <v>657</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="16">
         <v>0.06</v>
       </c>
-      <c r="L60" s="30"/>
-      <c r="M60" s="22">
+      <c r="L60" s="23"/>
+      <c r="M60" s="17">
         <v>0.09</v>
       </c>
-      <c r="N60" s="30"/>
-      <c r="O60" s="23">
+      <c r="N60" s="23"/>
+      <c r="O60" s="18">
         <v>0.78</v>
       </c>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="24">
+      <c r="P60" s="23"/>
+      <c r="Q60" s="19">
         <v>1.46</v>
       </c>
-      <c r="R60" s="30"/>
+      <c r="R60" s="23"/>
       <c r="S60" s="4">
         <v>0.2</v>
       </c>
@@ -4177,24 +4262,24 @@
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="1:28" ht="18" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -4237,28 +4322,28 @@
       <c r="J62" s="2">
         <v>1491</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="16">
         <v>0.03</v>
       </c>
-      <c r="L62" s="25" t="s">
+      <c r="L62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="22">
+      <c r="M62" s="17">
         <v>0.05</v>
       </c>
-      <c r="N62" s="26" t="s">
+      <c r="N62" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="23">
+      <c r="O62" s="18">
         <v>0.08</v>
       </c>
-      <c r="P62" s="27" t="s">
+      <c r="P62" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="24">
+      <c r="Q62" s="19">
         <v>0.65</v>
       </c>
-      <c r="R62" s="28" t="s">
+      <c r="R62" s="26" t="s">
         <v>6</v>
       </c>
       <c r="S62" s="4">
@@ -4309,22 +4394,22 @@
       <c r="J63" s="2">
         <v>1737</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="16">
         <v>0.03</v>
       </c>
-      <c r="L63" s="30"/>
-      <c r="M63" s="22">
+      <c r="L63" s="23"/>
+      <c r="M63" s="17">
         <v>0.05</v>
       </c>
-      <c r="N63" s="30"/>
-      <c r="O63" s="23">
+      <c r="N63" s="23"/>
+      <c r="O63" s="18">
         <v>0.08</v>
       </c>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="24">
+      <c r="P63" s="23"/>
+      <c r="Q63" s="19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R63" s="30"/>
+      <c r="R63" s="23"/>
       <c r="S63" s="4">
         <v>0.1</v>
       </c>
@@ -4371,22 +4456,22 @@
       <c r="J64" s="2">
         <v>1007</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K64" s="16">
         <v>0.04</v>
       </c>
-      <c r="L64" s="30"/>
-      <c r="M64" s="22">
+      <c r="L64" s="23"/>
+      <c r="M64" s="17">
         <v>0.05</v>
       </c>
-      <c r="N64" s="30"/>
-      <c r="O64" s="23">
+      <c r="N64" s="23"/>
+      <c r="O64" s="18">
         <v>0.09</v>
       </c>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="24">
+      <c r="P64" s="23"/>
+      <c r="Q64" s="19">
         <v>0.96</v>
       </c>
-      <c r="R64" s="30"/>
+      <c r="R64" s="23"/>
       <c r="S64" s="4">
         <v>0.2</v>
       </c>
@@ -4433,22 +4518,22 @@
       <c r="J65" s="2">
         <v>1007</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="16">
         <v>0.04</v>
       </c>
-      <c r="L65" s="30"/>
-      <c r="M65" s="22">
+      <c r="L65" s="23"/>
+      <c r="M65" s="17">
         <v>0.05</v>
       </c>
-      <c r="N65" s="30"/>
-      <c r="O65" s="23">
+      <c r="N65" s="23"/>
+      <c r="O65" s="18">
         <v>0.09</v>
       </c>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="24">
+      <c r="P65" s="23"/>
+      <c r="Q65" s="19">
         <v>0.96</v>
       </c>
-      <c r="R65" s="30"/>
+      <c r="R65" s="23"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -4471,14 +4556,14 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -4501,14 +4586,14 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -4531,14 +4616,14 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -4561,14 +4646,14 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -4591,14 +4676,14 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -4621,14 +4706,14 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -4651,14 +4736,14 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -4681,14 +4766,14 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -4711,14 +4796,14 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -4741,14 +4826,14 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
@@ -4771,14 +4856,14 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
@@ -4801,14 +4886,14 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
@@ -4831,14 +4916,14 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
@@ -4861,14 +4946,14 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
@@ -4891,14 +4976,14 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
@@ -4921,14 +5006,14 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
@@ -4951,14 +5036,14 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
@@ -4981,14 +5066,14 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
@@ -5011,14 +5096,14 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
@@ -5041,14 +5126,14 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
@@ -5071,14 +5156,14 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
@@ -5101,14 +5186,14 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
@@ -5131,14 +5216,14 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
@@ -5161,14 +5246,14 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
@@ -5191,14 +5276,14 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
@@ -5221,14 +5306,14 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
@@ -5251,14 +5336,14 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
@@ -5281,14 +5366,14 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
@@ -5311,14 +5396,14 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="19"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
@@ -5341,14 +5426,14 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="19"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
@@ -5371,14 +5456,14 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="19"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="19"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
@@ -5401,14 +5486,14 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
@@ -5431,14 +5516,14 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="19"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
@@ -5461,14 +5546,14 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
@@ -5491,14 +5576,14 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="19"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
@@ -5521,14 +5606,14 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
@@ -5551,14 +5636,14 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="19"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="15"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
@@ -5581,14 +5666,14 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
@@ -5611,14 +5696,14 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="19"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
@@ -5641,14 +5726,14 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="19"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="19"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
@@ -5671,14 +5756,14 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="19"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="19"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
@@ -5701,14 +5786,14 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="19"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
@@ -5731,14 +5816,14 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
@@ -5761,14 +5846,14 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
@@ -5791,14 +5876,14 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -5821,14 +5906,14 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
@@ -5851,14 +5936,14 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="15"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
@@ -5881,14 +5966,14 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -5911,14 +5996,14 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
@@ -5941,14 +6026,14 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="19"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="19"/>
-      <c r="R115" s="19"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
@@ -5971,14 +6056,14 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="19"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="19"/>
-      <c r="R116" s="19"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="15"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
@@ -6001,14 +6086,14 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="19"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="19"/>
-      <c r="R117" s="19"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
@@ -6031,14 +6116,14 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="15"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
@@ -6061,14 +6146,14 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="19"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="19"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
@@ -6091,14 +6176,14 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="19"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="19"/>
-      <c r="R120" s="19"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15"/>
+      <c r="R120" s="15"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
@@ -6121,14 +6206,14 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
-      <c r="M121" s="19"/>
-      <c r="N121" s="19"/>
-      <c r="O121" s="19"/>
-      <c r="P121" s="19"/>
-      <c r="Q121" s="19"/>
-      <c r="R121" s="19"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="15"/>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
@@ -6151,14 +6236,14 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
-      <c r="O122" s="19"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="19"/>
-      <c r="R122" s="19"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
@@ -6181,14 +6266,14 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19"/>
-      <c r="N123" s="19"/>
-      <c r="O123" s="19"/>
-      <c r="P123" s="19"/>
-      <c r="Q123" s="19"/>
-      <c r="R123" s="19"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="15"/>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
@@ -6211,14 +6296,14 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
-      <c r="N124" s="19"/>
-      <c r="O124" s="19"/>
-      <c r="P124" s="19"/>
-      <c r="Q124" s="19"/>
-      <c r="R124" s="19"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="15"/>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
@@ -6241,14 +6326,14 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19"/>
-      <c r="N125" s="19"/>
-      <c r="O125" s="19"/>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="19"/>
-      <c r="R125" s="19"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
@@ -6271,14 +6356,14 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="15"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
@@ -6301,14 +6386,14 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
-      <c r="N127" s="19"/>
-      <c r="O127" s="19"/>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="19"/>
-      <c r="R127" s="19"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="15"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
@@ -6331,14 +6416,14 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
-      <c r="N128" s="19"/>
-      <c r="O128" s="19"/>
-      <c r="P128" s="19"/>
-      <c r="Q128" s="19"/>
-      <c r="R128" s="19"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="15"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
@@ -6361,14 +6446,14 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19"/>
-      <c r="N129" s="19"/>
-      <c r="O129" s="19"/>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="19"/>
-      <c r="R129" s="19"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="15"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
@@ -6391,14 +6476,14 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="19"/>
-      <c r="O130" s="19"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-      <c r="R130" s="19"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
@@ -6421,14 +6506,14 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="19"/>
-      <c r="O131" s="19"/>
-      <c r="P131" s="19"/>
-      <c r="Q131" s="19"/>
-      <c r="R131" s="19"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="15"/>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
@@ -6451,14 +6536,14 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
-      <c r="N132" s="19"/>
-      <c r="O132" s="19"/>
-      <c r="P132" s="19"/>
-      <c r="Q132" s="19"/>
-      <c r="R132" s="19"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
@@ -6481,14 +6566,14 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
-      <c r="O133" s="19"/>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="19"/>
-      <c r="R133" s="19"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="15"/>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
@@ -6511,14 +6596,14 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="19"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
@@ -6541,14 +6626,14 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
-      <c r="O135" s="19"/>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="19"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
@@ -6571,14 +6656,14 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
@@ -6601,14 +6686,14 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="19"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="15"/>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
@@ -6631,14 +6716,14 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="15"/>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
@@ -6661,14 +6746,14 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="19"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="19"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="15"/>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
@@ -6691,14 +6776,14 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
-      <c r="O140" s="19"/>
-      <c r="P140" s="19"/>
-      <c r="Q140" s="19"/>
-      <c r="R140" s="19"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+      <c r="O140" s="15"/>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15"/>
+      <c r="R140" s="15"/>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
@@ -6721,14 +6806,14 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="19"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="15"/>
+      <c r="Q141" s="15"/>
+      <c r="R141" s="15"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
@@ -6751,14 +6836,14 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
@@ -6781,14 +6866,14 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
-      <c r="O143" s="19"/>
-      <c r="P143" s="19"/>
-      <c r="Q143" s="19"/>
-      <c r="R143" s="19"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="15"/>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
@@ -6811,14 +6896,14 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
-      <c r="O144" s="19"/>
-      <c r="P144" s="19"/>
-      <c r="Q144" s="19"/>
-      <c r="R144" s="19"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="15"/>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
@@ -6841,14 +6926,14 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
-      <c r="O145" s="19"/>
-      <c r="P145" s="19"/>
-      <c r="Q145" s="19"/>
-      <c r="R145" s="19"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
@@ -6871,14 +6956,14 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
@@ -6901,14 +6986,14 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
-      <c r="O147" s="19"/>
-      <c r="P147" s="19"/>
-      <c r="Q147" s="19"/>
-      <c r="R147" s="19"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+      <c r="R147" s="15"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
@@ -6931,14 +7016,14 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="19"/>
-      <c r="Q148" s="19"/>
-      <c r="R148" s="19"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+      <c r="R148" s="15"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
@@ -6961,14 +7046,14 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="19"/>
-      <c r="P149" s="19"/>
-      <c r="Q149" s="19"/>
-      <c r="R149" s="19"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+      <c r="R149" s="15"/>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
@@ -6991,14 +7076,14 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
-      <c r="R150" s="19"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
@@ -7021,14 +7106,14 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19"/>
-      <c r="O151" s="19"/>
-      <c r="P151" s="19"/>
-      <c r="Q151" s="19"/>
-      <c r="R151" s="19"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="15"/>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
@@ -7051,14 +7136,14 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="19"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="15"/>
+      <c r="Q152" s="15"/>
+      <c r="R152" s="15"/>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
@@ -7081,14 +7166,14 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="19"/>
-      <c r="R153" s="19"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
@@ -7111,14 +7196,14 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="19"/>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="19"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
+      <c r="O154" s="15"/>
+      <c r="P154" s="15"/>
+      <c r="Q154" s="15"/>
+      <c r="R154" s="15"/>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
@@ -7141,14 +7226,14 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
-      <c r="O155" s="19"/>
-      <c r="P155" s="19"/>
-      <c r="Q155" s="19"/>
-      <c r="R155" s="19"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+      <c r="O155" s="15"/>
+      <c r="P155" s="15"/>
+      <c r="Q155" s="15"/>
+      <c r="R155" s="15"/>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
@@ -7171,14 +7256,14 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
-      <c r="O156" s="19"/>
-      <c r="P156" s="19"/>
-      <c r="Q156" s="19"/>
-      <c r="R156" s="19"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
+      <c r="O156" s="15"/>
+      <c r="P156" s="15"/>
+      <c r="Q156" s="15"/>
+      <c r="R156" s="15"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
@@ -7201,14 +7286,14 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
-      <c r="O157" s="19"/>
-      <c r="P157" s="19"/>
-      <c r="Q157" s="19"/>
-      <c r="R157" s="19"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="15"/>
+      <c r="Q157" s="15"/>
+      <c r="R157" s="15"/>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
@@ -7231,14 +7316,14 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
-      <c r="O158" s="19"/>
-      <c r="P158" s="19"/>
-      <c r="Q158" s="19"/>
-      <c r="R158" s="19"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
+      <c r="Q158" s="15"/>
+      <c r="R158" s="15"/>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
@@ -7261,14 +7346,14 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="19"/>
-      <c r="Q159" s="19"/>
-      <c r="R159" s="19"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
+      <c r="Q159" s="15"/>
+      <c r="R159" s="15"/>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
@@ -7291,14 +7376,14 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19"/>
-      <c r="P160" s="19"/>
-      <c r="Q160" s="19"/>
-      <c r="R160" s="19"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
+      <c r="R160" s="15"/>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
@@ -7321,14 +7406,14 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="19"/>
-      <c r="Q161" s="19"/>
-      <c r="R161" s="19"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
+      <c r="R161" s="15"/>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
@@ -7351,14 +7436,14 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19"/>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
-      <c r="R162" s="19"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
+      <c r="Q162" s="15"/>
+      <c r="R162" s="15"/>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
@@ -7381,14 +7466,14 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
-      <c r="O163" s="19"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="19"/>
-      <c r="R163" s="19"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
+      <c r="Q163" s="15"/>
+      <c r="R163" s="15"/>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
@@ -7411,14 +7496,14 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
-      <c r="O164" s="19"/>
-      <c r="P164" s="19"/>
-      <c r="Q164" s="19"/>
-      <c r="R164" s="19"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
+      <c r="O164" s="15"/>
+      <c r="P164" s="15"/>
+      <c r="Q164" s="15"/>
+      <c r="R164" s="15"/>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
@@ -7441,14 +7526,14 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="15"/>
+      <c r="Q165" s="15"/>
+      <c r="R165" s="15"/>
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
@@ -7471,14 +7556,14 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="19"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+      <c r="N166" s="15"/>
+      <c r="O166" s="15"/>
+      <c r="P166" s="15"/>
+      <c r="Q166" s="15"/>
+      <c r="R166" s="15"/>
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
@@ -7501,14 +7586,14 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="19"/>
-      <c r="P167" s="19"/>
-      <c r="Q167" s="19"/>
-      <c r="R167" s="19"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
+      <c r="Q167" s="15"/>
+      <c r="R167" s="15"/>
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
@@ -7531,14 +7616,14 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="19"/>
-      <c r="Q168" s="19"/>
-      <c r="R168" s="19"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="15"/>
+      <c r="Q168" s="15"/>
+      <c r="R168" s="15"/>
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
@@ -7561,14 +7646,14 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
-      <c r="K169" s="19"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="19"/>
-      <c r="Q169" s="19"/>
-      <c r="R169" s="19"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="15"/>
+      <c r="Q169" s="15"/>
+      <c r="R169" s="15"/>
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
@@ -7591,14 +7676,14 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
-      <c r="K170" s="19"/>
-      <c r="L170" s="19"/>
-      <c r="M170" s="19"/>
-      <c r="N170" s="19"/>
-      <c r="O170" s="19"/>
-      <c r="P170" s="19"/>
-      <c r="Q170" s="19"/>
-      <c r="R170" s="19"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="15"/>
+      <c r="O170" s="15"/>
+      <c r="P170" s="15"/>
+      <c r="Q170" s="15"/>
+      <c r="R170" s="15"/>
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
@@ -7621,14 +7706,14 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
-      <c r="K171" s="19"/>
-      <c r="L171" s="19"/>
-      <c r="M171" s="19"/>
-      <c r="N171" s="19"/>
-      <c r="O171" s="19"/>
-      <c r="P171" s="19"/>
-      <c r="Q171" s="19"/>
-      <c r="R171" s="19"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
+      <c r="N171" s="15"/>
+      <c r="O171" s="15"/>
+      <c r="P171" s="15"/>
+      <c r="Q171" s="15"/>
+      <c r="R171" s="15"/>
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
@@ -7651,14 +7736,14 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="19"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19"/>
-      <c r="N172" s="19"/>
-      <c r="O172" s="19"/>
-      <c r="P172" s="19"/>
-      <c r="Q172" s="19"/>
-      <c r="R172" s="19"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="15"/>
+      <c r="N172" s="15"/>
+      <c r="O172" s="15"/>
+      <c r="P172" s="15"/>
+      <c r="Q172" s="15"/>
+      <c r="R172" s="15"/>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
@@ -7681,14 +7766,14 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="19"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="19"/>
-      <c r="N173" s="19"/>
-      <c r="O173" s="19"/>
-      <c r="P173" s="19"/>
-      <c r="Q173" s="19"/>
-      <c r="R173" s="19"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
+      <c r="Q173" s="15"/>
+      <c r="R173" s="15"/>
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
@@ -7711,14 +7796,14 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
-      <c r="K174" s="19"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
-      <c r="N174" s="19"/>
-      <c r="O174" s="19"/>
-      <c r="P174" s="19"/>
-      <c r="Q174" s="19"/>
-      <c r="R174" s="19"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
+      <c r="O174" s="15"/>
+      <c r="P174" s="15"/>
+      <c r="Q174" s="15"/>
+      <c r="R174" s="15"/>
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
@@ -7741,14 +7826,14 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="K175" s="19"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="19"/>
-      <c r="N175" s="19"/>
-      <c r="O175" s="19"/>
-      <c r="P175" s="19"/>
-      <c r="Q175" s="19"/>
-      <c r="R175" s="19"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
+      <c r="O175" s="15"/>
+      <c r="P175" s="15"/>
+      <c r="Q175" s="15"/>
+      <c r="R175" s="15"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
@@ -7771,14 +7856,14 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
-      <c r="K176" s="19"/>
-      <c r="L176" s="19"/>
-      <c r="M176" s="19"/>
-      <c r="N176" s="19"/>
-      <c r="O176" s="19"/>
-      <c r="P176" s="19"/>
-      <c r="Q176" s="19"/>
-      <c r="R176" s="19"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="15"/>
+      <c r="O176" s="15"/>
+      <c r="P176" s="15"/>
+      <c r="Q176" s="15"/>
+      <c r="R176" s="15"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
@@ -7801,14 +7886,14 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-      <c r="O177" s="19"/>
-      <c r="P177" s="19"/>
-      <c r="Q177" s="19"/>
-      <c r="R177" s="19"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="15"/>
+      <c r="N177" s="15"/>
+      <c r="O177" s="15"/>
+      <c r="P177" s="15"/>
+      <c r="Q177" s="15"/>
+      <c r="R177" s="15"/>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
       <c r="U177" s="2"/>
@@ -7831,14 +7916,14 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="19"/>
-      <c r="P178" s="19"/>
-      <c r="Q178" s="19"/>
-      <c r="R178" s="19"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="15"/>
+      <c r="M178" s="15"/>
+      <c r="N178" s="15"/>
+      <c r="O178" s="15"/>
+      <c r="P178" s="15"/>
+      <c r="Q178" s="15"/>
+      <c r="R178" s="15"/>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
       <c r="U178" s="2"/>
@@ -7861,14 +7946,14 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="19"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
-      <c r="N179" s="19"/>
-      <c r="O179" s="19"/>
-      <c r="P179" s="19"/>
-      <c r="Q179" s="19"/>
-      <c r="R179" s="19"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="15"/>
+      <c r="N179" s="15"/>
+      <c r="O179" s="15"/>
+      <c r="P179" s="15"/>
+      <c r="Q179" s="15"/>
+      <c r="R179" s="15"/>
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
@@ -7891,14 +7976,14 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
-      <c r="K180" s="19"/>
-      <c r="L180" s="19"/>
-      <c r="M180" s="19"/>
-      <c r="N180" s="19"/>
-      <c r="O180" s="19"/>
-      <c r="P180" s="19"/>
-      <c r="Q180" s="19"/>
-      <c r="R180" s="19"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="15"/>
+      <c r="O180" s="15"/>
+      <c r="P180" s="15"/>
+      <c r="Q180" s="15"/>
+      <c r="R180" s="15"/>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
@@ -7921,14 +8006,14 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
-      <c r="K181" s="19"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="19"/>
-      <c r="N181" s="19"/>
-      <c r="O181" s="19"/>
-      <c r="P181" s="19"/>
-      <c r="Q181" s="19"/>
-      <c r="R181" s="19"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="15"/>
+      <c r="O181" s="15"/>
+      <c r="P181" s="15"/>
+      <c r="Q181" s="15"/>
+      <c r="R181" s="15"/>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
       <c r="U181" s="2"/>
@@ -7951,14 +8036,14 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
-      <c r="K182" s="19"/>
-      <c r="L182" s="19"/>
-      <c r="M182" s="19"/>
-      <c r="N182" s="19"/>
-      <c r="O182" s="19"/>
-      <c r="P182" s="19"/>
-      <c r="Q182" s="19"/>
-      <c r="R182" s="19"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="15"/>
+      <c r="N182" s="15"/>
+      <c r="O182" s="15"/>
+      <c r="P182" s="15"/>
+      <c r="Q182" s="15"/>
+      <c r="R182" s="15"/>
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
       <c r="U182" s="2"/>
@@ -7981,14 +8066,14 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
-      <c r="K183" s="19"/>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19"/>
-      <c r="N183" s="19"/>
-      <c r="O183" s="19"/>
-      <c r="P183" s="19"/>
-      <c r="Q183" s="19"/>
-      <c r="R183" s="19"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15"/>
+      <c r="M183" s="15"/>
+      <c r="N183" s="15"/>
+      <c r="O183" s="15"/>
+      <c r="P183" s="15"/>
+      <c r="Q183" s="15"/>
+      <c r="R183" s="15"/>
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
@@ -8011,14 +8096,14 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
-      <c r="K184" s="19"/>
-      <c r="L184" s="19"/>
-      <c r="M184" s="19"/>
-      <c r="N184" s="19"/>
-      <c r="O184" s="19"/>
-      <c r="P184" s="19"/>
-      <c r="Q184" s="19"/>
-      <c r="R184" s="19"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+      <c r="M184" s="15"/>
+      <c r="N184" s="15"/>
+      <c r="O184" s="15"/>
+      <c r="P184" s="15"/>
+      <c r="Q184" s="15"/>
+      <c r="R184" s="15"/>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
@@ -8041,14 +8126,14 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
-      <c r="K185" s="19"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
-      <c r="N185" s="19"/>
-      <c r="O185" s="19"/>
-      <c r="P185" s="19"/>
-      <c r="Q185" s="19"/>
-      <c r="R185" s="19"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="15"/>
+      <c r="M185" s="15"/>
+      <c r="N185" s="15"/>
+      <c r="O185" s="15"/>
+      <c r="P185" s="15"/>
+      <c r="Q185" s="15"/>
+      <c r="R185" s="15"/>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
       <c r="U185" s="2"/>
@@ -8071,14 +8156,14 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-      <c r="O186" s="19"/>
-      <c r="P186" s="19"/>
-      <c r="Q186" s="19"/>
-      <c r="R186" s="19"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="15"/>
+      <c r="M186" s="15"/>
+      <c r="N186" s="15"/>
+      <c r="O186" s="15"/>
+      <c r="P186" s="15"/>
+      <c r="Q186" s="15"/>
+      <c r="R186" s="15"/>
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
       <c r="U186" s="2"/>
@@ -8101,14 +8186,14 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
-      <c r="K187" s="19"/>
-      <c r="L187" s="19"/>
-      <c r="M187" s="19"/>
-      <c r="N187" s="19"/>
-      <c r="O187" s="19"/>
-      <c r="P187" s="19"/>
-      <c r="Q187" s="19"/>
-      <c r="R187" s="19"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+      <c r="M187" s="15"/>
+      <c r="N187" s="15"/>
+      <c r="O187" s="15"/>
+      <c r="P187" s="15"/>
+      <c r="Q187" s="15"/>
+      <c r="R187" s="15"/>
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
       <c r="U187" s="2"/>
@@ -8131,14 +8216,14 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
-      <c r="K188" s="19"/>
-      <c r="L188" s="19"/>
-      <c r="M188" s="19"/>
-      <c r="N188" s="19"/>
-      <c r="O188" s="19"/>
-      <c r="P188" s="19"/>
-      <c r="Q188" s="19"/>
-      <c r="R188" s="19"/>
+      <c r="K188" s="15"/>
+      <c r="L188" s="15"/>
+      <c r="M188" s="15"/>
+      <c r="N188" s="15"/>
+      <c r="O188" s="15"/>
+      <c r="P188" s="15"/>
+      <c r="Q188" s="15"/>
+      <c r="R188" s="15"/>
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
       <c r="U188" s="2"/>
@@ -8161,14 +8246,14 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
-      <c r="K189" s="19"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="19"/>
-      <c r="N189" s="19"/>
-      <c r="O189" s="19"/>
-      <c r="P189" s="19"/>
-      <c r="Q189" s="19"/>
-      <c r="R189" s="19"/>
+      <c r="K189" s="15"/>
+      <c r="L189" s="15"/>
+      <c r="M189" s="15"/>
+      <c r="N189" s="15"/>
+      <c r="O189" s="15"/>
+      <c r="P189" s="15"/>
+      <c r="Q189" s="15"/>
+      <c r="R189" s="15"/>
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
@@ -8191,14 +8276,14 @@
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="19"/>
-      <c r="L190" s="19"/>
-      <c r="M190" s="19"/>
-      <c r="N190" s="19"/>
-      <c r="O190" s="19"/>
-      <c r="P190" s="19"/>
-      <c r="Q190" s="19"/>
-      <c r="R190" s="19"/>
+      <c r="K190" s="15"/>
+      <c r="L190" s="15"/>
+      <c r="M190" s="15"/>
+      <c r="N190" s="15"/>
+      <c r="O190" s="15"/>
+      <c r="P190" s="15"/>
+      <c r="Q190" s="15"/>
+      <c r="R190" s="15"/>
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
@@ -8221,14 +8306,14 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
-      <c r="R191" s="19"/>
+      <c r="K191" s="15"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
+      <c r="P191" s="15"/>
+      <c r="Q191" s="15"/>
+      <c r="R191" s="15"/>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
       <c r="U191" s="2"/>
@@ -8251,14 +8336,14 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
-      <c r="K192" s="19"/>
-      <c r="L192" s="19"/>
-      <c r="M192" s="19"/>
-      <c r="N192" s="19"/>
-      <c r="O192" s="19"/>
-      <c r="P192" s="19"/>
-      <c r="Q192" s="19"/>
-      <c r="R192" s="19"/>
+      <c r="K192" s="15"/>
+      <c r="L192" s="15"/>
+      <c r="M192" s="15"/>
+      <c r="N192" s="15"/>
+      <c r="O192" s="15"/>
+      <c r="P192" s="15"/>
+      <c r="Q192" s="15"/>
+      <c r="R192" s="15"/>
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
       <c r="U192" s="2"/>
@@ -8281,14 +8366,14 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
-      <c r="N193" s="19"/>
-      <c r="O193" s="19"/>
-      <c r="P193" s="19"/>
-      <c r="Q193" s="19"/>
-      <c r="R193" s="19"/>
+      <c r="K193" s="15"/>
+      <c r="L193" s="15"/>
+      <c r="M193" s="15"/>
+      <c r="N193" s="15"/>
+      <c r="O193" s="15"/>
+      <c r="P193" s="15"/>
+      <c r="Q193" s="15"/>
+      <c r="R193" s="15"/>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
       <c r="U193" s="2"/>
@@ -8311,14 +8396,14 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
-      <c r="O194" s="19"/>
-      <c r="P194" s="19"/>
-      <c r="Q194" s="19"/>
-      <c r="R194" s="19"/>
+      <c r="K194" s="15"/>
+      <c r="L194" s="15"/>
+      <c r="M194" s="15"/>
+      <c r="N194" s="15"/>
+      <c r="O194" s="15"/>
+      <c r="P194" s="15"/>
+      <c r="Q194" s="15"/>
+      <c r="R194" s="15"/>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
@@ -8341,14 +8426,14 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
-      <c r="K195" s="19"/>
-      <c r="L195" s="19"/>
-      <c r="M195" s="19"/>
-      <c r="N195" s="19"/>
-      <c r="O195" s="19"/>
-      <c r="P195" s="19"/>
-      <c r="Q195" s="19"/>
-      <c r="R195" s="19"/>
+      <c r="K195" s="15"/>
+      <c r="L195" s="15"/>
+      <c r="M195" s="15"/>
+      <c r="N195" s="15"/>
+      <c r="O195" s="15"/>
+      <c r="P195" s="15"/>
+      <c r="Q195" s="15"/>
+      <c r="R195" s="15"/>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
@@ -8371,14 +8456,14 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
-      <c r="K196" s="19"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
-      <c r="N196" s="19"/>
-      <c r="O196" s="19"/>
-      <c r="P196" s="19"/>
-      <c r="Q196" s="19"/>
-      <c r="R196" s="19"/>
+      <c r="K196" s="15"/>
+      <c r="L196" s="15"/>
+      <c r="M196" s="15"/>
+      <c r="N196" s="15"/>
+      <c r="O196" s="15"/>
+      <c r="P196" s="15"/>
+      <c r="Q196" s="15"/>
+      <c r="R196" s="15"/>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
@@ -8401,14 +8486,14 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
-      <c r="K197" s="19"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
-      <c r="N197" s="19"/>
-      <c r="O197" s="19"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="19"/>
-      <c r="R197" s="19"/>
+      <c r="K197" s="15"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="15"/>
+      <c r="O197" s="15"/>
+      <c r="P197" s="15"/>
+      <c r="Q197" s="15"/>
+      <c r="R197" s="15"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
@@ -8431,14 +8516,14 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
-      <c r="N198" s="19"/>
-      <c r="O198" s="19"/>
-      <c r="P198" s="19"/>
-      <c r="Q198" s="19"/>
-      <c r="R198" s="19"/>
+      <c r="K198" s="15"/>
+      <c r="L198" s="15"/>
+      <c r="M198" s="15"/>
+      <c r="N198" s="15"/>
+      <c r="O198" s="15"/>
+      <c r="P198" s="15"/>
+      <c r="Q198" s="15"/>
+      <c r="R198" s="15"/>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
@@ -8461,14 +8546,14 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-      <c r="N199" s="19"/>
-      <c r="O199" s="19"/>
-      <c r="P199" s="19"/>
-      <c r="Q199" s="19"/>
-      <c r="R199" s="19"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="15"/>
+      <c r="N199" s="15"/>
+      <c r="O199" s="15"/>
+      <c r="P199" s="15"/>
+      <c r="Q199" s="15"/>
+      <c r="R199" s="15"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
@@ -8491,14 +8576,14 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
-      <c r="K200" s="19"/>
-      <c r="L200" s="19"/>
-      <c r="M200" s="19"/>
-      <c r="N200" s="19"/>
-      <c r="O200" s="19"/>
-      <c r="P200" s="19"/>
-      <c r="Q200" s="19"/>
-      <c r="R200" s="19"/>
+      <c r="K200" s="15"/>
+      <c r="L200" s="15"/>
+      <c r="M200" s="15"/>
+      <c r="N200" s="15"/>
+      <c r="O200" s="15"/>
+      <c r="P200" s="15"/>
+      <c r="Q200" s="15"/>
+      <c r="R200" s="15"/>
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
       <c r="U200" s="2"/>
@@ -8521,14 +8606,14 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
-      <c r="K201" s="19"/>
-      <c r="L201" s="19"/>
-      <c r="M201" s="19"/>
-      <c r="N201" s="19"/>
-      <c r="O201" s="19"/>
-      <c r="P201" s="19"/>
-      <c r="Q201" s="19"/>
-      <c r="R201" s="19"/>
+      <c r="K201" s="15"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="15"/>
+      <c r="N201" s="15"/>
+      <c r="O201" s="15"/>
+      <c r="P201" s="15"/>
+      <c r="Q201" s="15"/>
+      <c r="R201" s="15"/>
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
@@ -8551,14 +8636,14 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
-      <c r="K202" s="19"/>
-      <c r="L202" s="19"/>
-      <c r="M202" s="19"/>
-      <c r="N202" s="19"/>
-      <c r="O202" s="19"/>
-      <c r="P202" s="19"/>
-      <c r="Q202" s="19"/>
-      <c r="R202" s="19"/>
+      <c r="K202" s="15"/>
+      <c r="L202" s="15"/>
+      <c r="M202" s="15"/>
+      <c r="N202" s="15"/>
+      <c r="O202" s="15"/>
+      <c r="P202" s="15"/>
+      <c r="Q202" s="15"/>
+      <c r="R202" s="15"/>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
@@ -8581,14 +8666,14 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
-      <c r="K203" s="19"/>
-      <c r="L203" s="19"/>
-      <c r="M203" s="19"/>
-      <c r="N203" s="19"/>
-      <c r="O203" s="19"/>
-      <c r="P203" s="19"/>
-      <c r="Q203" s="19"/>
-      <c r="R203" s="19"/>
+      <c r="K203" s="15"/>
+      <c r="L203" s="15"/>
+      <c r="M203" s="15"/>
+      <c r="N203" s="15"/>
+      <c r="O203" s="15"/>
+      <c r="P203" s="15"/>
+      <c r="Q203" s="15"/>
+      <c r="R203" s="15"/>
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
@@ -8611,14 +8696,14 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
-      <c r="K204" s="19"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
-      <c r="N204" s="19"/>
-      <c r="O204" s="19"/>
-      <c r="P204" s="19"/>
-      <c r="Q204" s="19"/>
-      <c r="R204" s="19"/>
+      <c r="K204" s="15"/>
+      <c r="L204" s="15"/>
+      <c r="M204" s="15"/>
+      <c r="N204" s="15"/>
+      <c r="O204" s="15"/>
+      <c r="P204" s="15"/>
+      <c r="Q204" s="15"/>
+      <c r="R204" s="15"/>
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
       <c r="U204" s="2"/>
@@ -8641,14 +8726,14 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
-      <c r="N205" s="19"/>
-      <c r="O205" s="19"/>
-      <c r="P205" s="19"/>
-      <c r="Q205" s="19"/>
-      <c r="R205" s="19"/>
+      <c r="K205" s="15"/>
+      <c r="L205" s="15"/>
+      <c r="M205" s="15"/>
+      <c r="N205" s="15"/>
+      <c r="O205" s="15"/>
+      <c r="P205" s="15"/>
+      <c r="Q205" s="15"/>
+      <c r="R205" s="15"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
       <c r="U205" s="2"/>
@@ -8671,14 +8756,14 @@
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
-      <c r="K206" s="19"/>
-      <c r="L206" s="19"/>
-      <c r="M206" s="19"/>
-      <c r="N206" s="19"/>
-      <c r="O206" s="19"/>
-      <c r="P206" s="19"/>
-      <c r="Q206" s="19"/>
-      <c r="R206" s="19"/>
+      <c r="K206" s="15"/>
+      <c r="L206" s="15"/>
+      <c r="M206" s="15"/>
+      <c r="N206" s="15"/>
+      <c r="O206" s="15"/>
+      <c r="P206" s="15"/>
+      <c r="Q206" s="15"/>
+      <c r="R206" s="15"/>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
       <c r="U206" s="2"/>
@@ -8701,14 +8786,14 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
-      <c r="K207" s="19"/>
-      <c r="L207" s="19"/>
-      <c r="M207" s="19"/>
-      <c r="N207" s="19"/>
-      <c r="O207" s="19"/>
-      <c r="P207" s="19"/>
-      <c r="Q207" s="19"/>
-      <c r="R207" s="19"/>
+      <c r="K207" s="15"/>
+      <c r="L207" s="15"/>
+      <c r="M207" s="15"/>
+      <c r="N207" s="15"/>
+      <c r="O207" s="15"/>
+      <c r="P207" s="15"/>
+      <c r="Q207" s="15"/>
+      <c r="R207" s="15"/>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
       <c r="U207" s="2"/>
@@ -8722,6 +8807,56 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="R8:R11"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="R29:R32"/>
+    <mergeCell ref="A33:R34"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="P35:P38"/>
+    <mergeCell ref="R35:R38"/>
+    <mergeCell ref="A39:R39"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="P50:P53"/>
+    <mergeCell ref="R50:R53"/>
+    <mergeCell ref="A54:R54"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="N45:N48"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="R45:R48"/>
+    <mergeCell ref="A49:R49"/>
     <mergeCell ref="L62:L65"/>
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="P62:P65"/>
@@ -8731,61 +8866,12 @@
     <mergeCell ref="P55:P60"/>
     <mergeCell ref="R55:R60"/>
     <mergeCell ref="A61:R61"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="R45:R48"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="P50:P53"/>
-    <mergeCell ref="R50:R53"/>
-    <mergeCell ref="A54:R54"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="P35:P38"/>
-    <mergeCell ref="R35:R38"/>
-    <mergeCell ref="A39:R39"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="A33:R34"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="R8:R11"/>
-    <mergeCell ref="A12:R12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" xr:uid="{6132D502-D631-49C0-A3BB-E4457CE32446}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>